--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>498902.6127354265</v>
+        <v>431889.0009836453</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4321361.842589804</v>
+        <v>3840854.495975446</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10435498.72183875</v>
+        <v>10457196.99249322</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8548339.602247631</v>
+        <v>8566164.688334364</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -703,16 +703,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -794,16 +794,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>123.6003327477366</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -834,40 +834,40 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>28.25887585634902</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T5" t="n">
-        <v>62.4162677022923</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="6">
@@ -980,16 +980,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>17.37414591949781</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>3.833957768458675</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>184.6873296566787</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>144.0576027644701</v>
       </c>
       <c r="S8" t="n">
-        <v>80.33470701582003</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>111.1907825699907</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,7 +1387,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>47.68163653245649</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>38.05191990147986</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1457,7 +1457,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>76.94956457708285</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>179.8857230322546</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,7 +1624,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>300.9778115845833</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>73.21442268269193</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,28 +1767,28 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>49.37995006892102</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>65.44321853360977</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>98.43948891920624</v>
       </c>
       <c r="E17" t="n">
-        <v>200.5019571546939</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958686</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183509</v>
+        <v>20.900780601835</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>34.70567508705194</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>228.7932641399353</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>197.9817241579291</v>
+        <v>162.9007437950951</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>165.3608563416214</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>198.5622246230542</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U23" t="n">
-        <v>20.86956528937749</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>241.2457390334737</v>
       </c>
     </row>
     <row r="24">
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>79.28604738509118</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>155.6549124528995</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>352.9293923433048</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>25.17713387316947</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>45.7330574133579</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2800,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>83.71082459531132</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>94.70313292997028</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>45.73305741335789</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>165.0140383262353</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>216.0954061087065</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>229.0346803645784</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>79.28604738509162</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>122.1022459852816</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>70.78807224732944</v>
       </c>
       <c r="W35" t="n">
-        <v>7.193625909755062</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.980384243200308</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,10 +3480,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>259.1180275670284</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H38" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>85.41869519958665</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>170.0785504138067</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I39" t="n">
-        <v>45.4458084395873</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>65.44321853360977</v>
+        <v>165.0140383262353</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>107.5759848528688</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H41" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.1547862223006</v>
@@ -3802,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>238.5045136226533</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>225.5650375952951</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>194.1129289370697</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>285.2107520848951</v>
+        <v>107.5759848528688</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>63.41107167461783</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.3024922077873</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H45" t="n">
-        <v>92.52344006174989</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I45" t="n">
-        <v>19.12450171074273</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S45" t="n">
-        <v>133.7720277432331</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T45" t="n">
-        <v>191.9379658262512</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8071041233812</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>105.5210517014271</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
-        <v>220.6344114530736</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2256951695733</v>
+        <v>227.0289503706757</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>90.33569644483418</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>90.33569644483418</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V2" t="n">
-        <v>577.2332497330343</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W2" t="n">
-        <v>333.7844730889342</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>333.7844730889342</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>333.7844730889342</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4421,40 +4421,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>362.4348659156472</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V3" t="n">
-        <v>362.4348659156472</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W3" t="n">
-        <v>362.4348659156472</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4515,25 +4515,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>295.1424006267615</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10933763570858</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10933763570858</v>
       </c>
       <c r="E5" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10933763570858</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10933763570858</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10933763570858</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10933763570858</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>767.4595009530259</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>542.1754636178144</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>542.1754636178144</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>542.1754636178144</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>542.1754636178144</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>542.1754636178144</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>295.1424006267615</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>612.9942845540484</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>612.9942845540484</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>464.059874892797</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>304.8224198873415</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.2878619142265</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>239.4861551219973</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>481.6032601595282</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>723.7203651970592</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>907.8577401332358</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>877.5769898880284</v>
       </c>
       <c r="T6" t="n">
-        <v>487.2836868729568</v>
+        <v>860.0273475451013</v>
       </c>
       <c r="U6" t="n">
-        <v>259.0600686093459</v>
+        <v>860.0273475451013</v>
       </c>
       <c r="V6" t="n">
-        <v>23.90796037760316</v>
+        <v>860.0273475451013</v>
       </c>
       <c r="W6" t="n">
-        <v>20.03527576299844</v>
+        <v>612.9942845540484</v>
       </c>
       <c r="X6" t="n">
-        <v>20.03527576299844</v>
+        <v>612.9942845540484</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>612.9942845540484</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>262.7299197543128</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="C8" t="n">
-        <v>262.7299197543128</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>207.6122209552027</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573682</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098024</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369329</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>950.137187388514</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806667</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S8" t="n">
-        <v>731.528039392485</v>
+        <v>698.4535282668857</v>
       </c>
       <c r="T8" t="n">
-        <v>506.1786963984129</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="U8" t="n">
-        <v>506.1786963984129</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>473.5132653508255</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>473.5132653508255</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>49.38115216564972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C9" t="n">
-        <v>49.38115216564972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D9" t="n">
-        <v>49.38115216564972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E9" t="n">
-        <v>49.38115216564972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F9" t="n">
-        <v>49.38115216564972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>600.5536970360757</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>860.9667611285678</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>850.9830782217423</v>
       </c>
       <c r="U9" t="n">
-        <v>735.8335372470253</v>
+        <v>622.7627494639471</v>
       </c>
       <c r="V9" t="n">
-        <v>500.6814290152826</v>
+        <v>387.6106412322044</v>
       </c>
       <c r="W9" t="n">
-        <v>257.2326523711826</v>
+        <v>133.3732845040028</v>
       </c>
       <c r="X9" t="n">
-        <v>49.38115216564972</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y9" t="n">
-        <v>49.38115216564972</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360296</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955239</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486497</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716483</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1943.051672525278</v>
+        <v>880.774606092793</v>
       </c>
       <c r="C11" t="n">
-        <v>1943.051672525278</v>
+        <v>880.774606092793</v>
       </c>
       <c r="D11" t="n">
-        <v>1584.785973918528</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E11" t="n">
-        <v>1198.997721320284</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F11" t="n">
-        <v>788.0118165306759</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G11" t="n">
-        <v>370.9240347671034</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H11" t="n">
         <v>52.70091953961285</v>
@@ -5041,25 +5041,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J11" t="n">
-        <v>73.93516953299616</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K11" t="n">
-        <v>477.4022825530416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L11" t="n">
-        <v>616.7309383942948</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M11" t="n">
-        <v>1248.448749377606</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N11" t="n">
-        <v>1875.756417437453</v>
+        <v>1578.654815536984</v>
       </c>
       <c r="O11" t="n">
-        <v>2422.91762220453</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P11" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q11" t="n">
         <v>2635.045976980643</v>
@@ -5068,25 +5068,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S11" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T11" t="n">
-        <v>2586.882707755939</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U11" t="n">
-        <v>2333.19100450109</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V11" t="n">
-        <v>2333.19100450109</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W11" t="n">
-        <v>2333.19100450109</v>
+        <v>1640.840204417995</v>
       </c>
       <c r="X11" t="n">
-        <v>2333.19100450109</v>
+        <v>1267.374446156915</v>
       </c>
       <c r="Y11" t="n">
-        <v>1943.051672525278</v>
+        <v>1267.374446156915</v>
       </c>
     </row>
     <row r="12">
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662183</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850913</v>
       </c>
       <c r="D12" t="n">
-        <v>642.7351650238405</v>
+        <v>642.73516502384</v>
       </c>
       <c r="E12" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183844</v>
       </c>
       <c r="F12" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452695</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044913</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929602</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="J12" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961264</v>
       </c>
       <c r="K12" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454225</v>
       </c>
       <c r="L12" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115411</v>
       </c>
       <c r="M12" t="n">
-        <v>1184.647451923042</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N12" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P12" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920174</v>
       </c>
       <c r="Q12" t="n">
-        <v>2635.045976980643</v>
+        <v>2635.045976980642</v>
       </c>
       <c r="R12" t="n">
         <v>2613.934077382829</v>
@@ -5153,19 +5153,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U12" t="n">
-        <v>2039.339204916718</v>
+        <v>2039.339204916717</v>
       </c>
       <c r="V12" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y12" t="n">
-        <v>1134.337940986287</v>
+        <v>1134.337940986286</v>
       </c>
     </row>
     <row r="13">
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>52.70091953961285</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="C13" t="n">
-        <v>52.70091953961285</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="D13" t="n">
         <v>52.70091953961285</v>
@@ -5223,28 +5223,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R13" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S13" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T13" t="n">
-        <v>489.0881582831306</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U13" t="n">
-        <v>489.0881582831306</v>
+        <v>974.9087680928134</v>
       </c>
       <c r="V13" t="n">
-        <v>234.4036700772437</v>
+        <v>720.2242798869265</v>
       </c>
       <c r="W13" t="n">
-        <v>52.70091953961285</v>
+        <v>430.8071098499659</v>
       </c>
       <c r="X13" t="n">
-        <v>52.70091953961285</v>
+        <v>202.8175589519486</v>
       </c>
       <c r="Y13" t="n">
-        <v>52.70091953961285</v>
+        <v>202.8175589519486</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1132.072391409515</v>
+        <v>1197.016916850348</v>
       </c>
       <c r="C14" t="n">
-        <v>1132.072391409515</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="D14" t="n">
-        <v>773.8066928027645</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="E14" t="n">
-        <v>773.8066928027645</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F14" t="n">
-        <v>773.8066928027645</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G14" t="n">
-        <v>356.7189110391919</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H14" t="n">
         <v>52.70091953961285</v>
@@ -5284,16 +5284,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L14" t="n">
-        <v>1197.621189819594</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M14" t="n">
-        <v>1384.320602645002</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N14" t="n">
-        <v>1731.974486189138</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O14" t="n">
-        <v>2279.135690956215</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P14" t="n">
         <v>2389.870016205742</v>
@@ -5305,25 +5305,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S14" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T14" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U14" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V14" t="n">
-        <v>2635.045976980643</v>
+        <v>1936.385412184583</v>
       </c>
       <c r="W14" t="n">
-        <v>2282.277321710528</v>
+        <v>1583.616756914469</v>
       </c>
       <c r="X14" t="n">
-        <v>1908.811563449448</v>
+        <v>1583.616756914469</v>
       </c>
       <c r="Y14" t="n">
-        <v>1518.672231473637</v>
+        <v>1583.616756914469</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D15" t="n">
         <v>642.7351650238404</v>
@@ -5354,28 +5354,28 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J15" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K15" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L15" t="n">
-        <v>624.6702790690885</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M15" t="n">
-        <v>986.7313792423969</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N15" t="n">
-        <v>1638.905258545106</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.341267297829</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q15" t="n">
         <v>2635.045976980643</v>
@@ -5396,10 +5396,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y15" t="n">
         <v>1134.337940986287</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>714.7173549707657</v>
+        <v>221.6371024675198</v>
       </c>
       <c r="C16" t="n">
-        <v>714.7173549707657</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D16" t="n">
-        <v>714.7173549707657</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E16" t="n">
-        <v>664.8386175274111</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F16" t="n">
-        <v>517.9486700295007</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G16" t="n">
-        <v>349.3418250248841</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H16" t="n">
-        <v>195.0871819246492</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I16" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J16" t="n">
         <v>52.70091953961285</v>
@@ -5460,28 +5460,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R16" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S16" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T16" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U16" t="n">
-        <v>714.7173549707657</v>
+        <v>986.5313398538973</v>
       </c>
       <c r="V16" t="n">
-        <v>714.7173549707657</v>
+        <v>731.8468516480104</v>
       </c>
       <c r="W16" t="n">
-        <v>714.7173549707657</v>
+        <v>442.4296816110499</v>
       </c>
       <c r="X16" t="n">
-        <v>714.7173549707657</v>
+        <v>442.4296816110499</v>
       </c>
       <c r="Y16" t="n">
-        <v>714.7173549707657</v>
+        <v>221.6371024675198</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2248.446136916521</v>
+        <v>1365.996685882155</v>
       </c>
       <c r="C17" t="n">
-        <v>1879.483619976109</v>
+        <v>1365.996685882155</v>
       </c>
       <c r="D17" t="n">
-        <v>1521.217921369358</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E17" t="n">
-        <v>1318.690691920173</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F17" t="n">
-        <v>907.7047871305651</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G17" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H17" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I17" t="n">
         <v>52.70091953961285</v>
@@ -5518,16 +5518,16 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K17" t="n">
-        <v>323.9039731279416</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L17" t="n">
-        <v>876.7172313741407</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M17" t="n">
-        <v>1508.435042357452</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N17" t="n">
-        <v>1702.769255249435</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O17" t="n">
         <v>1960.554969866447</v>
@@ -5542,25 +5542,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V17" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W17" t="n">
-        <v>2635.045976980643</v>
+        <v>2126.062284207356</v>
       </c>
       <c r="X17" t="n">
-        <v>2635.045976980643</v>
+        <v>1752.596525946276</v>
       </c>
       <c r="Y17" t="n">
-        <v>2635.045976980643</v>
+        <v>1752.596525946276</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C18" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D18" t="n">
-        <v>642.7351650238405</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E18" t="n">
-        <v>483.497710018385</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F18" t="n">
-        <v>336.96315204527</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G18" t="n">
-        <v>199.521754404492</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H18" t="n">
-        <v>98.60577654929655</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I18" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J18" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K18" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L18" t="n">
-        <v>1005.150115568437</v>
+        <v>519.3589218611166</v>
       </c>
       <c r="M18" t="n">
-        <v>1232.27200203395</v>
+        <v>778.7548643839062</v>
       </c>
       <c r="N18" t="n">
         <v>1430.928743686615</v>
@@ -5633,10 +5633,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W18" t="n">
-        <v>1549.949739956774</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X18" t="n">
-        <v>1342.098239751241</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y18" t="n">
         <v>1134.337940986287</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>425.300184933805</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="C19" t="n">
-        <v>256.3640020058981</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D19" t="n">
-        <v>256.3640020058981</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E19" t="n">
-        <v>256.3640020058981</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F19" t="n">
-        <v>256.3640020058981</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G19" t="n">
-        <v>87.75715700128148</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H19" t="n">
         <v>52.70091953961285</v>
@@ -5697,28 +5697,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R19" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S19" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T19" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U19" t="n">
-        <v>714.7173549707657</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V19" t="n">
-        <v>714.7173549707657</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W19" t="n">
-        <v>425.300184933805</v>
+        <v>532.3791173645815</v>
       </c>
       <c r="X19" t="n">
-        <v>425.300184933805</v>
+        <v>532.3791173645815</v>
       </c>
       <c r="Y19" t="n">
-        <v>425.300184933805</v>
+        <v>532.3791173645815</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1318.690691920173</v>
+        <v>421.6634364800246</v>
       </c>
       <c r="C20" t="n">
-        <v>1318.690691920173</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D20" t="n">
-        <v>1318.690691920173</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E20" t="n">
-        <v>1318.690691920173</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F20" t="n">
-        <v>907.7047871305651</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G20" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H20" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I20" t="n">
         <v>52.70091953961285</v>
@@ -5758,19 +5758,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L20" t="n">
-        <v>1197.621189819594</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M20" t="n">
-        <v>1384.320602645002</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N20" t="n">
-        <v>1623.585605852676</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O20" t="n">
-        <v>2170.746810619753</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P20" t="n">
-        <v>2600.061856959047</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q20" t="n">
         <v>2635.045976980643</v>
@@ -5782,22 +5782,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T20" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U20" t="n">
-        <v>2435.064437427179</v>
+        <v>2255.699909394722</v>
       </c>
       <c r="V20" t="n">
-        <v>2435.064437427179</v>
+        <v>1924.637022051152</v>
       </c>
       <c r="W20" t="n">
-        <v>2082.295782157064</v>
+        <v>1571.868366781038</v>
       </c>
       <c r="X20" t="n">
-        <v>1708.830023895984</v>
+        <v>1198.402608519958</v>
       </c>
       <c r="Y20" t="n">
-        <v>1318.690691920173</v>
+        <v>808.2632765441464</v>
       </c>
     </row>
     <row r="21">
@@ -5834,19 +5834,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K21" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L21" t="n">
-        <v>453.4876558703395</v>
+        <v>519.3589218611166</v>
       </c>
       <c r="M21" t="n">
-        <v>1094.033005337444</v>
+        <v>1159.904271328221</v>
       </c>
       <c r="N21" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O21" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P21" t="n">
         <v>2404.332520920175</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>221.6371024675198</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="C22" t="n">
-        <v>52.70091953961285</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="D22" t="n">
-        <v>52.70091953961285</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="E22" t="n">
-        <v>52.70091953961285</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F22" t="n">
-        <v>52.70091953961285</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G22" t="n">
         <v>52.70091953961285</v>
@@ -5949,13 +5949,13 @@
         <v>1052.635600998958</v>
       </c>
       <c r="W22" t="n">
-        <v>852.067697339307</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X22" t="n">
-        <v>624.0781464412896</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="Y22" t="n">
-        <v>403.2855672977595</v>
+        <v>535.2288800639797</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>779.9291350867751</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="C23" t="n">
-        <v>410.9666181463634</v>
+        <v>1239.040304699543</v>
       </c>
       <c r="D23" t="n">
-        <v>52.70091953961285</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E23" t="n">
-        <v>52.70091953961285</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F23" t="n">
-        <v>52.70091953961285</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G23" t="n">
         <v>52.70091953961285</v>
@@ -5995,7 +5995,7 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L23" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M23" t="n">
         <v>1219.059552207387</v>
@@ -6019,22 +6019,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T23" t="n">
-        <v>2635.045976980643</v>
+        <v>2420.246115248354</v>
       </c>
       <c r="U23" t="n">
-        <v>2613.965608001473</v>
+        <v>2166.554411993505</v>
       </c>
       <c r="V23" t="n">
-        <v>2282.902720657903</v>
+        <v>1835.491524649934</v>
       </c>
       <c r="W23" t="n">
-        <v>1930.134065387788</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="X23" t="n">
-        <v>1556.668307126709</v>
+        <v>1482.72286937982</v>
       </c>
       <c r="Y23" t="n">
-        <v>1166.528975150897</v>
+        <v>1239.040304699543</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D24" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E24" t="n">
-        <v>483.4977100183844</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F24" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G24" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H24" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I24" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J24" t="n">
-        <v>171.3601713965083</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K24" t="n">
-        <v>500.7885757023182</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L24" t="n">
-        <v>638.0181737180121</v>
+        <v>661.4641707288301</v>
       </c>
       <c r="M24" t="n">
-        <v>817.515510072617</v>
+        <v>1302.009520195935</v>
       </c>
       <c r="N24" t="n">
-        <v>1469.689389375326</v>
+        <v>1954.183399498644</v>
       </c>
       <c r="O24" t="n">
-        <v>1980.364752439338</v>
+        <v>2503.619408251367</v>
       </c>
       <c r="P24" t="n">
-        <v>2404.332520920174</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q24" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R24" t="n">
         <v>2613.934077382829</v>
@@ -6101,7 +6101,7 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U24" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V24" t="n">
         <v>1804.187096684975</v>
@@ -6113,7 +6113,7 @@
         <v>1342.09823975124</v>
       </c>
       <c r="Y24" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1715.198212071895</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="D25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="E25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="F25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J25" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K25" t="n">
-        <v>1736.159225116907</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L25" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M25" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N25" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O25" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P25" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q25" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R25" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S25" t="n">
-        <v>2635.045976980643</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T25" t="n">
-        <v>2635.045976980643</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U25" t="n">
-        <v>2635.045976980643</v>
+        <v>619.566119563728</v>
       </c>
       <c r="V25" t="n">
-        <v>2635.045976980643</v>
+        <v>619.566119563728</v>
       </c>
       <c r="W25" t="n">
-        <v>2345.628806943682</v>
+        <v>462.3389352678699</v>
       </c>
       <c r="X25" t="n">
-        <v>2117.639256045664</v>
+        <v>234.3493843698525</v>
       </c>
       <c r="Y25" t="n">
-        <v>1896.846676902134</v>
+        <v>234.3493843698525</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1165.717387685019</v>
+        <v>1522.211723385327</v>
       </c>
       <c r="C26" t="n">
-        <v>796.7548707446076</v>
+        <v>1153.249206444915</v>
       </c>
       <c r="D26" t="n">
-        <v>438.4891721378571</v>
+        <v>794.983507838165</v>
       </c>
       <c r="E26" t="n">
-        <v>52.70091953961285</v>
+        <v>409.1952552399208</v>
       </c>
       <c r="F26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J26" t="n">
         <v>241.3408185533492</v>
@@ -6232,16 +6232,16 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L26" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M26" t="n">
-        <v>970.8360002400555</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N26" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O26" t="n">
-        <v>1960.554969866447</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P26" t="n">
         <v>2389.870016205742</v>
@@ -6259,19 +6259,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U26" t="n">
-        <v>2609.614528623906</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V26" t="n">
-        <v>2278.551641280335</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W26" t="n">
-        <v>1925.782986010221</v>
+        <v>2282.277321710529</v>
       </c>
       <c r="X26" t="n">
-        <v>1552.317227749141</v>
+        <v>1908.811563449449</v>
       </c>
       <c r="Y26" t="n">
-        <v>1552.317227749141</v>
+        <v>1908.811563449449</v>
       </c>
     </row>
     <row r="27">
@@ -6296,13 +6296,13 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G27" t="n">
-        <v>199.5217544044918</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H27" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I27" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J27" t="n">
         <v>171.3601713965085</v>
@@ -6311,16 +6311,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L27" t="n">
-        <v>989.1812241132636</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M27" t="n">
-        <v>1168.678560467868</v>
+        <v>1232.272002033951</v>
       </c>
       <c r="N27" t="n">
-        <v>1820.852439770578</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O27" t="n">
-        <v>1980.364752439338</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P27" t="n">
         <v>2404.332520920175</v>
@@ -6329,7 +6329,7 @@
         <v>2635.045976980643</v>
       </c>
       <c r="R27" t="n">
-        <v>2613.934077382829</v>
+        <v>2613.93407738283</v>
       </c>
       <c r="S27" t="n">
         <v>2464.467288245464</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.89592702785316</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C28" t="n">
-        <v>98.89592702785316</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D28" t="n">
-        <v>98.89592702785316</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E28" t="n">
-        <v>98.89592702785316</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F28" t="n">
-        <v>98.89592702785316</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G28" t="n">
-        <v>98.89592702785316</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J28" t="n">
-        <v>52.70091953961285</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K28" t="n">
         <v>153.7488491352227</v>
@@ -6414,22 +6414,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>1052.635600998958</v>
+        <v>885.9547542047806</v>
       </c>
       <c r="U28" t="n">
-        <v>1052.635600998958</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V28" t="n">
-        <v>797.9511127930708</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W28" t="n">
-        <v>508.5339427561102</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X28" t="n">
-        <v>280.5443918580929</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y28" t="n">
-        <v>280.5443918580929</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1165.717387685019</v>
+        <v>1197.016916850348</v>
       </c>
       <c r="C29" t="n">
-        <v>796.7548707446076</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="D29" t="n">
-        <v>438.4891721378571</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="E29" t="n">
-        <v>52.70091953961286</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F29" t="n">
-        <v>52.70091953961286</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G29" t="n">
         <v>52.70091953961286</v>
@@ -6469,10 +6469,10 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L29" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M29" t="n">
-        <v>970.8360002400555</v>
+        <v>1219.059552207388</v>
       </c>
       <c r="N29" t="n">
         <v>1413.39376509937</v>
@@ -6499,16 +6499,16 @@
         <v>2010.339374490333</v>
       </c>
       <c r="V29" t="n">
-        <v>1925.782986010221</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W29" t="n">
-        <v>1925.782986010221</v>
+        <v>1583.616756914469</v>
       </c>
       <c r="X29" t="n">
-        <v>1552.317227749141</v>
+        <v>1583.616756914469</v>
       </c>
       <c r="Y29" t="n">
-        <v>1552.317227749141</v>
+        <v>1583.616756914469</v>
       </c>
     </row>
     <row r="30">
@@ -6542,16 +6542,16 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J30" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K30" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L30" t="n">
-        <v>1005.150115568437</v>
+        <v>599.2575280293017</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.647451923042</v>
+        <v>778.7548643839066</v>
       </c>
       <c r="N30" t="n">
         <v>1430.928743686616</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.70091953961286</v>
+        <v>98.89592702785316</v>
       </c>
       <c r="C31" t="n">
-        <v>52.70091953961286</v>
+        <v>98.89592702785316</v>
       </c>
       <c r="D31" t="n">
-        <v>52.70091953961286</v>
+        <v>98.89592702785316</v>
       </c>
       <c r="E31" t="n">
-        <v>52.70091953961286</v>
+        <v>98.89592702785316</v>
       </c>
       <c r="F31" t="n">
         <v>52.70091953961286</v>
@@ -6654,19 +6654,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U31" t="n">
-        <v>763.4834245766374</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V31" t="n">
-        <v>508.7989363707505</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W31" t="n">
-        <v>219.3817663337899</v>
+        <v>508.5339427561102</v>
       </c>
       <c r="X31" t="n">
-        <v>52.70091953961286</v>
+        <v>280.5443918580929</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.70091953961286</v>
+        <v>280.5443918580929</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1484.84104667963</v>
+        <v>1993.791074238199</v>
       </c>
       <c r="C32" t="n">
-        <v>1266.562858691037</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="D32" t="n">
         <v>1266.562858691037</v>
@@ -6706,13 +6706,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>1197.621189819594</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M32" t="n">
-        <v>1596.051731657506</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N32" t="n">
-        <v>1790.385944549488</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O32" t="n">
         <v>1960.554969866448</v>
@@ -6727,25 +6727,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S32" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T32" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U32" t="n">
-        <v>2635.045976980643</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V32" t="n">
-        <v>2635.045976980643</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="W32" t="n">
-        <v>2635.045976980643</v>
+        <v>1993.791074238199</v>
       </c>
       <c r="X32" t="n">
-        <v>2261.580218719563</v>
+        <v>1993.791074238199</v>
       </c>
       <c r="Y32" t="n">
-        <v>1871.440886743751</v>
+        <v>1993.791074238199</v>
       </c>
     </row>
     <row r="33">
@@ -6782,19 +6782,19 @@
         <v>171.3601713965085</v>
       </c>
       <c r="K33" t="n">
-        <v>238.9679910598655</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L33" t="n">
-        <v>743.329530925984</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M33" t="n">
-        <v>1383.874880393089</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N33" t="n">
-        <v>1746.206884640153</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O33" t="n">
-        <v>2295.642893392876</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P33" t="n">
         <v>2404.332520920175</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1715.198212071896</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="C34" t="n">
-        <v>1715.198212071896</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="D34" t="n">
-        <v>1715.198212071896</v>
+        <v>200.614013122006</v>
       </c>
       <c r="E34" t="n">
-        <v>1715.198212071896</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F34" t="n">
-        <v>1715.198212071896</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="J34" t="n">
-        <v>1635.111295521298</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K34" t="n">
-        <v>1736.159225116908</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L34" t="n">
-        <v>1920.992220017726</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M34" t="n">
-        <v>2126.261820736964</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N34" t="n">
-        <v>2332.085185573068</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O34" t="n">
-        <v>2506.180080961667</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P34" t="n">
-        <v>2631.627657560283</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S34" t="n">
-        <v>2635.045976980643</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T34" t="n">
-        <v>2635.045976980643</v>
+        <v>929.2999989936227</v>
       </c>
       <c r="U34" t="n">
-        <v>2635.045976980643</v>
+        <v>640.1478225713024</v>
       </c>
       <c r="V34" t="n">
-        <v>2635.045976980643</v>
+        <v>640.1478225713024</v>
       </c>
       <c r="W34" t="n">
-        <v>2345.628806943682</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="X34" t="n">
-        <v>2117.639256045665</v>
+        <v>350.7306525343417</v>
       </c>
       <c r="Y34" t="n">
-        <v>1896.846676902135</v>
+        <v>350.7306525343417</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1285.410358284908</v>
+        <v>1197.016916850348</v>
       </c>
       <c r="C35" t="n">
-        <v>916.4478413444967</v>
+        <v>828.0543999099359</v>
       </c>
       <c r="D35" t="n">
-        <v>558.1821427377463</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="E35" t="n">
-        <v>172.393890139502</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F35" t="n">
-        <v>172.393890139502</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G35" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H35" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I35" t="n">
         <v>52.70091953961286</v>
@@ -6943,10 +6943,10 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L35" t="n">
-        <v>1032.36013938198</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M35" t="n">
-        <v>1219.059552207388</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N35" t="n">
         <v>1413.39376509937</v>
@@ -6964,25 +6964,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S35" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T35" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U35" t="n">
-        <v>2010.339374490333</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V35" t="n">
-        <v>1679.276487146763</v>
+        <v>2309.851170445663</v>
       </c>
       <c r="W35" t="n">
-        <v>1672.01019834903</v>
+        <v>1957.082515175549</v>
       </c>
       <c r="X35" t="n">
-        <v>1672.01019834903</v>
+        <v>1583.616756914469</v>
       </c>
       <c r="Y35" t="n">
-        <v>1672.01019834903</v>
+        <v>1583.616756914469</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>500.7885757023184</v>
       </c>
       <c r="L36" t="n">
-        <v>638.0181737180123</v>
+        <v>914.5356689828395</v>
       </c>
       <c r="M36" t="n">
-        <v>817.5155100726172</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N36" t="n">
-        <v>1430.928743686616</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O36" t="n">
-        <v>1980.364752439339</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P36" t="n">
         <v>2404.332520920175</v>
@@ -7119,16 +7119,16 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R37" t="n">
-        <v>1045.584707824008</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S37" t="n">
-        <v>1045.584707824008</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T37" t="n">
-        <v>1045.584707824008</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U37" t="n">
-        <v>1045.584707824008</v>
+        <v>790.9002196181209</v>
       </c>
       <c r="V37" t="n">
         <v>790.9002196181209</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1276.667304070977</v>
+        <v>1249.737123033205</v>
       </c>
       <c r="C38" t="n">
-        <v>907.7047871305651</v>
+        <v>880.774606092793</v>
       </c>
       <c r="D38" t="n">
-        <v>907.7047871305651</v>
+        <v>880.774606092793</v>
       </c>
       <c r="E38" t="n">
-        <v>907.7047871305651</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F38" t="n">
-        <v>907.7047871305651</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G38" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H38" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I38" t="n">
         <v>52.70091953961286</v>
@@ -7180,13 +7180,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L38" t="n">
-        <v>784.1365874146478</v>
+        <v>964.333920674194</v>
       </c>
       <c r="M38" t="n">
-        <v>970.8360002400555</v>
+        <v>1596.051731657506</v>
       </c>
       <c r="N38" t="n">
-        <v>1413.39376509937</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O38" t="n">
         <v>1960.554969866448</v>
@@ -7201,25 +7201,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S38" t="n">
-        <v>2548.76446667803</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2333.964604945741</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U38" t="n">
-        <v>2333.964604945741</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V38" t="n">
-        <v>2002.901717602171</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W38" t="n">
-        <v>1650.133062332057</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X38" t="n">
-        <v>1276.667304070977</v>
+        <v>1421.533638602706</v>
       </c>
       <c r="Y38" t="n">
-        <v>1276.667304070977</v>
+        <v>1249.737123033205</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>966.1226039662192</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C39" t="n">
-        <v>791.6695746850922</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D39" t="n">
-        <v>642.735165023841</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E39" t="n">
-        <v>483.4977100183855</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F39" t="n">
-        <v>336.9631520452705</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G39" t="n">
-        <v>199.5217544044924</v>
+        <v>199.5217544044917</v>
       </c>
       <c r="H39" t="n">
-        <v>98.605776549297</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I39" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J39" t="n">
-        <v>89.49481119935477</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K39" t="n">
-        <v>157.1026308627118</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L39" t="n">
-        <v>661.4641707288304</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M39" t="n">
-        <v>1302.009520195935</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N39" t="n">
-        <v>1954.183399498644</v>
+        <v>1430.928743686616</v>
       </c>
       <c r="O39" t="n">
-        <v>2503.619408251367</v>
+        <v>1980.364752439339</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.309035778666</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q39" t="n">
         <v>2635.045976980643</v>
@@ -7280,7 +7280,7 @@
         <v>2613.93407738283</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.467288245465</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T39" t="n">
         <v>2267.477992405552</v>
@@ -7289,7 +7289,7 @@
         <v>2039.339204916718</v>
       </c>
       <c r="V39" t="n">
-        <v>1804.187096684976</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W39" t="n">
         <v>1549.949739956774</v>
@@ -7308,7 +7308,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>221.6371024675198</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C40" t="n">
         <v>52.70091953961286</v>
@@ -7362,22 +7362,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T40" t="n">
-        <v>986.5313398538973</v>
+        <v>885.9547542047806</v>
       </c>
       <c r="U40" t="n">
-        <v>986.5313398538973</v>
+        <v>596.8025777824604</v>
       </c>
       <c r="V40" t="n">
-        <v>731.8468516480104</v>
+        <v>342.1180895765735</v>
       </c>
       <c r="W40" t="n">
-        <v>442.4296816110499</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="X40" t="n">
-        <v>442.4296816110499</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="Y40" t="n">
-        <v>221.6371024675198</v>
+        <v>52.70091953961286</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1326.507831876648</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="C41" t="n">
-        <v>957.5453149362368</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="D41" t="n">
-        <v>599.2796163294863</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E41" t="n">
-        <v>599.2796163294863</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F41" t="n">
-        <v>599.2796163294863</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G41" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H41" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I41" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J41" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K41" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L41" t="n">
-        <v>917.967405303884</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M41" t="n">
-        <v>1104.666818129292</v>
+        <v>896.0109951791954</v>
       </c>
       <c r="N41" t="n">
-        <v>1731.974486189138</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O41" t="n">
-        <v>2279.135690956216</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P41" t="n">
         <v>2389.870016205742</v>
@@ -7441,22 +7441,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T41" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U41" t="n">
-        <v>2010.339374490333</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V41" t="n">
-        <v>1679.276487146763</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="W41" t="n">
-        <v>1326.507831876648</v>
+        <v>1894.076348879051</v>
       </c>
       <c r="X41" t="n">
-        <v>1326.507831876648</v>
+        <v>1653.162698755159</v>
       </c>
       <c r="Y41" t="n">
-        <v>1326.507831876648</v>
+        <v>1653.162698755159</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>199.5217544044917</v>
       </c>
       <c r="H42" t="n">
-        <v>98.60577654929637</v>
+        <v>98.60577654929638</v>
       </c>
       <c r="I42" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J42" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K42" t="n">
-        <v>500.7885757023184</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L42" t="n">
-        <v>1005.150115568437</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M42" t="n">
-        <v>1184.647451923042</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N42" t="n">
-        <v>1430.928743686616</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O42" t="n">
         <v>1980.364752439339</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.70091953961286</v>
+        <v>518.6436893777659</v>
       </c>
       <c r="C43" t="n">
-        <v>52.70091953961286</v>
+        <v>349.707506449859</v>
       </c>
       <c r="D43" t="n">
-        <v>52.70091953961286</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E43" t="n">
-        <v>52.70091953961286</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F43" t="n">
         <v>52.70091953961286</v>
@@ -7593,28 +7593,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R43" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S43" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T43" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="U43" t="n">
-        <v>824.7921286804777</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="V43" t="n">
-        <v>570.1076404745909</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="W43" t="n">
-        <v>280.6904704376302</v>
+        <v>518.6436893777659</v>
       </c>
       <c r="X43" t="n">
-        <v>52.70091953961286</v>
+        <v>518.6436893777659</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.70091953961286</v>
+        <v>518.6436893777659</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1132.072391409515</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="C44" t="n">
-        <v>763.1098744691037</v>
+        <v>957.5453149362368</v>
       </c>
       <c r="D44" t="n">
-        <v>404.8441758623532</v>
+        <v>599.2796163294863</v>
       </c>
       <c r="E44" t="n">
-        <v>404.8441758623532</v>
+        <v>599.2796163294863</v>
       </c>
       <c r="F44" t="n">
-        <v>404.8441758623532</v>
+        <v>599.2796163294863</v>
       </c>
       <c r="G44" t="n">
-        <v>116.7525070897319</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H44" t="n">
-        <v>116.7525070897319</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I44" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J44" t="n">
-        <v>193.9926295475604</v>
+        <v>241.3408185533492</v>
       </c>
       <c r="K44" t="n">
-        <v>456.4907949980433</v>
+        <v>644.8079315733946</v>
       </c>
       <c r="L44" t="n">
-        <v>819.0447427728841</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.125303783477</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N44" t="n">
-        <v>1700.859731512776</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O44" t="n">
-        <v>2109.363122473163</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P44" t="n">
-        <v>2423.510314738926</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q44" t="n">
-        <v>2611.24902655301</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R44" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="S44" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T44" t="n">
-        <v>2635.045976980643</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U44" t="n">
-        <v>2635.045976980643</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V44" t="n">
-        <v>2635.045976980643</v>
+        <v>1679.276487146763</v>
       </c>
       <c r="W44" t="n">
-        <v>2282.277321710529</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X44" t="n">
-        <v>1908.811563449449</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y44" t="n">
-        <v>1518.672231473637</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>931.3052542689253</v>
+        <v>966.1226039662187</v>
       </c>
       <c r="C45" t="n">
-        <v>756.8522249877983</v>
+        <v>791.6695746850917</v>
       </c>
       <c r="D45" t="n">
-        <v>607.917815326547</v>
+        <v>642.7351650238404</v>
       </c>
       <c r="E45" t="n">
-        <v>448.6803603210915</v>
+        <v>483.4977100183849</v>
       </c>
       <c r="F45" t="n">
-        <v>302.1458023479764</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G45" t="n">
-        <v>165.4766182997064</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H45" t="n">
-        <v>72.01859803531259</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I45" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J45" t="n">
-        <v>242.8655721052432</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K45" t="n">
-        <v>694.5080954349369</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L45" t="n">
-        <v>996.069658637294</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M45" t="n">
-        <v>1367.334647326684</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N45" t="n">
-        <v>1762.834560448976</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O45" t="n">
-        <v>2102.419918577405</v>
+        <v>1980.364752439338</v>
       </c>
       <c r="P45" t="n">
-        <v>2415.962991440182</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q45" t="n">
-        <v>2535.310729830173</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R45" t="n">
-        <v>2561.609832686965</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S45" t="n">
-        <v>2426.486572340265</v>
+        <v>2464.467288245464</v>
       </c>
       <c r="T45" t="n">
-        <v>2232.609839182435</v>
+        <v>2267.477992405552</v>
       </c>
       <c r="U45" t="n">
-        <v>2004.521855219424</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V45" t="n">
-        <v>1769.369746987682</v>
+        <v>1804.187096684975</v>
       </c>
       <c r="W45" t="n">
-        <v>1515.13239025948</v>
+        <v>1549.949739956773</v>
       </c>
       <c r="X45" t="n">
-        <v>1307.280890053947</v>
+        <v>1342.09823975124</v>
       </c>
       <c r="Y45" t="n">
-        <v>1099.520591288993</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.70091953961286</v>
+        <v>390.2439474721364</v>
       </c>
       <c r="C46" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="D46" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="E46" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F46" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G46" t="n">
         <v>52.70091953961286</v>
@@ -7806,52 +7806,52 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J46" t="n">
-        <v>80.04222654763831</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K46" t="n">
-        <v>254.8092295930466</v>
+        <v>153.7488491352227</v>
       </c>
       <c r="L46" t="n">
-        <v>533.9772579209388</v>
+        <v>338.581844036041</v>
       </c>
       <c r="M46" t="n">
-        <v>838.7099246413406</v>
+        <v>543.851444755279</v>
       </c>
       <c r="N46" t="n">
-        <v>1141.631346079985</v>
+        <v>749.6748095913833</v>
       </c>
       <c r="O46" t="n">
-        <v>1405.412012516899</v>
+        <v>923.7697049799822</v>
       </c>
       <c r="P46" t="n">
-        <v>1607.601259943067</v>
+        <v>1049.217281578598</v>
       </c>
       <c r="Q46" t="n">
-        <v>1664.151534413982</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="R46" t="n">
-        <v>1664.151534413982</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S46" t="n">
-        <v>1557.564613503449</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T46" t="n">
-        <v>1334.701571631658</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U46" t="n">
-        <v>1045.584707824008</v>
+        <v>390.2439474721364</v>
       </c>
       <c r="V46" t="n">
-        <v>790.9002196181209</v>
+        <v>390.2439474721364</v>
       </c>
       <c r="W46" t="n">
-        <v>501.4830495811603</v>
+        <v>390.2439474721364</v>
       </c>
       <c r="X46" t="n">
-        <v>273.4934986831429</v>
+        <v>390.2439474721364</v>
       </c>
       <c r="Y46" t="n">
-        <v>52.70091953961286</v>
+        <v>390.2439474721364</v>
       </c>
     </row>
   </sheetData>
@@ -8069,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O3" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>231.0813024560196</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>384.6945110063437</v>
       </c>
       <c r="N6" t="n">
-        <v>231.1529892133073</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>385.2788254813442</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>197.5393732613979</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>213.8698272853573</v>
       </c>
       <c r="P11" t="n">
-        <v>67.08071667170768</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>258.1828939084844</v>
+        <v>167.9634363311153</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8932,19 +8932,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>154.8683541940946</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,16 +9008,16 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>184.4078422411148</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>458.0981188384286</v>
+        <v>167.9634363311155</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>250.7308605730626</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>88.50170636368986</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>48.10560617263505</v>
+        <v>80.70566279614627</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9406,13 +9406,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>45.3846366825168</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O20" t="n">
         <v>380.8001812627454</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298244</v>
@@ -9482,22 +9482,22 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>197.9286046986622</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>458.0981188384286</v>
+        <v>73.098717884575</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9643,10 +9643,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>250.7308605730626</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9716,28 +9716,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>143.5406554219328</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>458.0981188384286</v>
       </c>
       <c r="O24" t="n">
-        <v>354.7101519143952</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9880,13 +9880,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>250.7308605730627</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9959,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>354.7101519143952</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>48.10560617263553</v>
       </c>
       <c r="N27" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10117,13 +10117,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>250.7308605730632</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>250.7308605730631</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>80.7056627961465</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>48.1056061726357</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10354,16 +10354,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>213.8698272853579</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>250.7308605730631</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>165.3285480751516</v>
+        <v>48.1056061726357</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10591,13 +10591,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>250.7308605730632</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>250.7308605730631</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10670,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>279.3106012776032</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>418.9459514760947</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10828,16 +10828,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>182.017508342976</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>250.7308605730631</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>43.3987523129808</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>458.0981188384287</v>
+        <v>167.963436331116</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>135.1826443325618</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>326.311673765851</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>48.1056061726357</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>96.12069185784571</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>367.183344854</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>60.93833417573103</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22549,7 +22549,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22567,7 +22567,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>140.1318817691307</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22591,16 +22591,16 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22682,16 +22682,16 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>102.3410493332383</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22722,7 +22722,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -22755,7 +22755,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22786,28 +22786,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>120.7101594098652</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>181.6476203504721</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>160.679581861839</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="6">
@@ -22868,22 +22868,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,19 +22913,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>182.7587310772211</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>247.8610253924609</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R7" t="n">
-        <v>44.10642379180146</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>86.81957671340953</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>143.6340117900448</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>230.5228917471527</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,19 +23065,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>128.6853625704253</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>107.544508198328</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>97.08446202703756</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,10 +23162,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>94.58220263348676</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23190,22 +23190,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>12.23408043756322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839144</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871616</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.6879292296161</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
         <v>118.4960408938903</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>164.9702265825095</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>311.1890488159332</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>209.3110900810141</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>106.6372753043364</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>14.06307249063229</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
         <v>118.4960408938903</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>254.537835787443</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23655,28 +23655,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>97.05401257764815</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>220.8174361244872</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,13 +23734,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>256.2435527014767</v>
       </c>
       <c r="E17" t="n">
-        <v>181.4284129175678</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.651863114966</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>118.0064215821806</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
         <v>123.266557879417</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>57.72973419665567</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,16 +23980,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>53.17306206437149</v>
+        <v>88.25404242720558</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>14.47112384031593</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>152.7120966692326</v>
@@ -24189,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>87.96077371353681</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>315.0408840752156</v>
@@ -24259,10 +24259,10 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>230.2852209329232</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>144.9921996225798</v>
       </c>
     </row>
     <row r="24">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>87.96077371353665</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24414,10 +24414,10 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S25" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.260654658097</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>130.8680858836915</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>53.94665339840662</v>
       </c>
       <c r="G26" t="n">
         <v>412.9169039459368</v>
@@ -24499,10 +24499,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>225.9776523491312</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24618,7 +24618,7 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
-        <v>106.9790392558747</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I28" t="n">
         <v>123.266557879417</v>
@@ -24654,10 +24654,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>223.3729047207587</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U28" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>315.0408840752156</v>
@@ -24739,13 +24739,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>244.0414338748236</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>254.5378357874427</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>99.68799060957335</v>
       </c>
       <c r="G31" t="n">
         <v>166.9207765545704</v>
@@ -24894,7 +24894,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>60.69561706280189</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>149.1774856623011</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U32" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>120.2062883528346</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>87.63472916947882</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25128,10 +25128,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>223.3729047207587</v>
+        <v>101.2706587354771</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>256.9641862228054</v>
       </c>
       <c r="W35" t="n">
-        <v>342.047342807658</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.192797424591</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S37" t="n">
         <v>205.3658819001186</v>
@@ -25368,10 +25368,10 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>286.260654658097</v>
+        <v>27.14262709106862</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>69.23419192855353</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
         <v>251.1547862223006</v>
@@ -25459,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>216.1593882422469</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25602,10 +25602,10 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>157.9296861871489</v>
+        <v>58.35886639452337</v>
       </c>
       <c r="U40" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>305.340919093068</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>131.2265870558157</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.9207765545704</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>60.69561706280186</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>92.41006939952126</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>126.2773218443302</v>
+        <v>305.340919093068</v>
       </c>
       <c r="H44" t="n">
-        <v>300.4078786665683</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>122.0934231223255</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>206.3971597168112</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0404798209637</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.2798525983037</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.0137000398793</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I46" t="n">
-        <v>103.9922265400504</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>100.3549099614712</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>88.67527361538879</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>59.23170428742134</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>490531.2536378616</v>
+        <v>493620.5445765711</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>490531.2536378616</v>
+        <v>509635.5853000612</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>826551.4445986439</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972481</v>
       </c>
       <c r="E2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="F2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="G2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="H2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="I2" t="n">
         <v>252134.9940623532</v>
@@ -26355,7 +26355,7 @@
         <v>252134.9940623532</v>
       </c>
       <c r="P2" t="n">
-        <v>262911.8505314358</v>
+        <v>252134.9940623532</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4491.824968753434</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>22364.98695753535</v>
       </c>
       <c r="E3" t="n">
-        <v>601530.6045241205</v>
+        <v>576404.8681646987</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>913.25580245714</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>4727.563118847362</v>
       </c>
       <c r="M3" t="n">
-        <v>104104.2745664029</v>
+        <v>98565.03158297989</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>236559.9980917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26420,22 +26420,22 @@
         <v>50385.00392753458</v>
       </c>
       <c r="C4" t="n">
-        <v>50385.00392753457</v>
+        <v>50404.27455704983</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753458</v>
+        <v>50480.80391628888</v>
       </c>
       <c r="E4" t="n">
+        <v>36133.96051511371</v>
+      </c>
+      <c r="F4" t="n">
         <v>36133.96051511372</v>
-      </c>
-      <c r="F4" t="n">
-        <v>36133.96051511371</v>
       </c>
       <c r="G4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="H4" t="n">
-        <v>36133.96051511371</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="I4" t="n">
         <v>36133.96051511372</v>
@@ -26444,22 +26444,22 @@
         <v>36133.96051511372</v>
       </c>
       <c r="K4" t="n">
-        <v>36133.96051511373</v>
+        <v>36133.96051511374</v>
       </c>
       <c r="L4" t="n">
         <v>36133.96051511373</v>
       </c>
       <c r="M4" t="n">
-        <v>36133.96051511374</v>
+        <v>36133.96051511373</v>
       </c>
       <c r="N4" t="n">
+        <v>36133.96051511373</v>
+      </c>
+      <c r="O4" t="n">
         <v>36133.96051511372</v>
       </c>
-      <c r="O4" t="n">
-        <v>36133.96051511373</v>
-      </c>
       <c r="P4" t="n">
-        <v>7416.310118926251</v>
+        <v>36133.96051511372</v>
       </c>
     </row>
     <row r="5">
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683334</v>
       </c>
       <c r="E5" t="n">
         <v>52990.47783747558</v>
@@ -26493,7 +26493,7 @@
         <v>52990.47783747558</v>
       </c>
       <c r="J5" t="n">
-        <v>52990.47783747558</v>
+        <v>52990.47783747559</v>
       </c>
       <c r="K5" t="n">
         <v>52990.47783747559</v>
@@ -26511,7 +26511,7 @@
         <v>52990.47783747559</v>
       </c>
       <c r="P5" t="n">
-        <v>60738.66581059821</v>
+        <v>52990.47783747559</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38199.13257121143</v>
+        <v>-50417.14319125189</v>
       </c>
       <c r="C6" t="n">
-        <v>42570.29896033629</v>
+        <v>26588.92740361415</v>
       </c>
       <c r="D6" t="n">
-        <v>42570.2989603363</v>
+        <v>12499.89299923328</v>
       </c>
       <c r="E6" t="n">
-        <v>-438520.0488143567</v>
+        <v>-419088.88646258</v>
       </c>
       <c r="F6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="G6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="H6" t="n">
-        <v>163010.5557097638</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="I6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="J6" t="n">
-        <v>99950.61311065759</v>
+        <v>94256.03910301239</v>
       </c>
       <c r="K6" t="n">
-        <v>163010.5557097638</v>
+        <v>156402.7258996615</v>
       </c>
       <c r="L6" t="n">
-        <v>163010.5557097638</v>
+        <v>152588.4185832713</v>
       </c>
       <c r="M6" t="n">
-        <v>58906.28114336103</v>
+        <v>58750.95011913887</v>
       </c>
       <c r="N6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021188</v>
       </c>
       <c r="O6" t="n">
-        <v>163010.5557097639</v>
+        <v>157315.9817021187</v>
       </c>
       <c r="P6" t="n">
-        <v>-41803.12348978865</v>
+        <v>157315.9817021188</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>23.01338268678938</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26779,7 +26779,7 @@
         <v>593.4761003380651</v>
       </c>
       <c r="P3" t="n">
-        <v>948.897566995066</v>
+        <v>593.4761003380651</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E4" t="n">
         <v>658.7614942451606</v>
@@ -26813,7 +26813,7 @@
         <v>658.7614942451606</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="K4" t="n">
         <v>658.7614942451607</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>19.33951979354706</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380651</v>
+        <v>570.4627176512757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>355.4214666570009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="E4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.519460293494</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.519460293494</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.548443483483339</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>18.6793015905242</v>
       </c>
       <c r="M4" t="n">
-        <v>417.7472053675016</v>
+        <v>395.519460293494</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.09251611130367583</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.9474806248887704</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>3.566727381034966</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>7.852189301760364</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>11.76839629324496</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>14.59973623455484</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>16.24501962895158</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>16.50788103019315</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>15.58792394841722</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>13.30393245060773</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544831</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>5.811515176679532</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.108210886332515</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.4049892772318412</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.007401288904294065</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.04950048351498094</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.4780704592104738</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.70429296312544</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.676710155246511</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>7.993242550750233</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.74790103688215</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430021</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.87425075418796</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104022</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>9.452421277522983</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.318693299210549</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.073372125605572</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.9194497705523865</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.1995216857467871</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.003256610757564536</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.04149954254994806</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.3689686601259021</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.248004425047529</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2.934017658281328</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>4.821492307166691</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>6.16985017147137</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>6.505241928988675</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>6.350561815847965</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>5.865771705150842</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.019181037131898</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.475020785705196</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.865970340473119</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.7232238460750037</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1773162272588689</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.002263611411815351</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32107,7 +32107,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U15" t="n">
         <v>0.08398246702897151</v>
@@ -33055,7 +33055,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T27" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U27" t="n">
         <v>0.08398246702897151</v>
@@ -34240,7 +34240,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T42" t="n">
-        <v>5.145325813308316</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U42" t="n">
         <v>0.08398246702897151</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.81466358590981</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H44" t="n">
-        <v>39.06692344919885</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I44" t="n">
-        <v>147.0648178957881</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J44" t="n">
-        <v>323.7648035246131</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K44" t="n">
-        <v>485.2395131161754</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L44" t="n">
-        <v>601.9825238334629</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M44" t="n">
-        <v>669.8215473793864</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N44" t="n">
-        <v>680.6599602928527</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O44" t="n">
-        <v>642.727899260462</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P44" t="n">
-        <v>548.5533919833135</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q44" t="n">
-        <v>411.9407523129183</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R44" t="n">
-        <v>239.6228614784073</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>86.92664646391988</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T44" t="n">
-        <v>16.6986898473202</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3051730868727848</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.041024955423349</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H45" t="n">
-        <v>19.71200417474656</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I45" t="n">
-        <v>70.27213114067234</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J45" t="n">
-        <v>192.8320989683087</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K45" t="n">
-        <v>329.5807709816731</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L45" t="n">
-        <v>443.1620193782146</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M45" t="n">
-        <v>517.1491740123109</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N45" t="n">
-        <v>530.8365738230228</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O45" t="n">
-        <v>485.6117577054844</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P45" t="n">
-        <v>389.746247847464</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q45" t="n">
-        <v>260.5350451870227</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R45" t="n">
-        <v>126.7225845130392</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S45" t="n">
-        <v>37.91114336060473</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T45" t="n">
-        <v>8.226762868570427</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1342779575936415</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.711126760155037</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H46" t="n">
-        <v>15.21347246756025</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I46" t="n">
-        <v>51.45824838720785</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J46" t="n">
-        <v>120.9766619429611</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K46" t="n">
-        <v>198.801818134376</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L46" t="n">
-        <v>254.3978821415952</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M46" t="n">
-        <v>268.2268975032118</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N46" t="n">
-        <v>261.8490613971796</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O46" t="n">
-        <v>241.8599896990048</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P46" t="n">
-        <v>206.9530037918418</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q46" t="n">
-        <v>143.2835326162549</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R46" t="n">
-        <v>76.93848141569828</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S46" t="n">
-        <v>29.8202727201564</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T46" t="n">
-        <v>7.311177975207882</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U46" t="n">
-        <v>0.09333418691754757</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34789,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O3" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>94.24272062454131</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N6" t="n">
-        <v>99.81127712997396</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>185.9973484203803</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>71.10423162760989</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194292</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>196.494535815018</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945113</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455864</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894759</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668208</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>243.0338665604671</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>79.07191193225258</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>263.0434990833253</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178751</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>46.08911889082926</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507656</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919052</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.297740302025386</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K11" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233105</v>
+        <v>385.7577316459225</v>
       </c>
       <c r="P11" t="n">
-        <v>178.9335704591082</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q11" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>332.7559639452625</v>
@@ -35500,7 +35500,7 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N12" t="n">
-        <v>458.8462693152164</v>
+        <v>368.6268117378473</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269929</v>
@@ -35509,7 +35509,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35652,19 +35652,19 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517163</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M14" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N14" t="n">
-        <v>351.1655389334708</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O14" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P14" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q14" t="n">
         <v>247.6524856312129</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M15" t="n">
-        <v>365.7182830033419</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>658.7614942451606</v>
+        <v>368.6268117378475</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269929</v>
@@ -35746,7 +35746,7 @@
         <v>428.2502711927643</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,19 +35886,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K17" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730422</v>
+        <v>439.3161260532724</v>
       </c>
       <c r="N17" t="n">
         <v>196.2971847393761</v>
       </c>
       <c r="O17" t="n">
-        <v>260.389610724255</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P17" t="n">
         <v>433.6515619588832</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M18" t="n">
-        <v>229.4160469348621</v>
+        <v>262.0161035583733</v>
       </c>
       <c r="N18" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
@@ -36126,13 +36126,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M20" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N20" t="n">
-        <v>241.6818214218929</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O20" t="n">
         <v>552.6880856233105</v>
@@ -36141,7 +36141,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>336.5443602700703</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M21" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N21" t="n">
-        <v>658.7614942451606</v>
+        <v>273.762093291307</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
         <v>233.0438950105733</v>
@@ -36363,10 +36363,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>391.4668765743286</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M23" t="n">
-        <v>188.5852654802098</v>
+        <v>439.3161260532724</v>
       </c>
       <c r="N23" t="n">
         <v>196.2971847393761</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L24" t="n">
-        <v>138.615755571408</v>
+        <v>282.1564109933408</v>
       </c>
       <c r="M24" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N24" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O24" t="n">
-        <v>515.8337000646585</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P24" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q24" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,13 +36600,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>140.7360160012659</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M26" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N26" t="n">
-        <v>447.0280453124388</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O26" t="n">
         <v>552.6880856233105</v>
@@ -36679,16 +36679,16 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L27" t="n">
-        <v>493.3259074858033</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348626</v>
       </c>
       <c r="N27" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O27" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
         <v>428.2502711927643</v>
@@ -36837,13 +36837,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L29" t="n">
-        <v>140.7360160012659</v>
+        <v>391.466876574329</v>
       </c>
       <c r="M29" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N29" t="n">
-        <v>447.0280453124392</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O29" t="n">
         <v>552.6880856233105</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
-        <v>509.4561008748672</v>
+        <v>219.3214183675545</v>
       </c>
       <c r="M30" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N30" t="n">
-        <v>248.7689815793677</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269929</v>
@@ -37074,16 +37074,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M32" t="n">
-        <v>402.4550927655677</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N32" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124392</v>
       </c>
       <c r="O32" t="n">
-        <v>171.8879043605652</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P32" t="n">
         <v>433.6515619588832</v>
@@ -37150,22 +37150,22 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K33" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L33" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M33" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N33" t="n">
-        <v>365.9919234818836</v>
+        <v>248.7689815793677</v>
       </c>
       <c r="O33" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P33" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q33" t="n">
         <v>233.0438950105733</v>
@@ -37311,13 +37311,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L35" t="n">
-        <v>391.466876574329</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M35" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N35" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124392</v>
       </c>
       <c r="O35" t="n">
         <v>552.6880856233105</v>
@@ -37390,19 +37390,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L36" t="n">
-        <v>138.615755571408</v>
+        <v>417.9263568490113</v>
       </c>
       <c r="M36" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N36" t="n">
-        <v>619.6093268828267</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O36" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P36" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q36" t="n">
         <v>233.0438950105733</v>
@@ -37548,16 +37548,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L38" t="n">
-        <v>140.7360160012659</v>
+        <v>322.7535243442418</v>
       </c>
       <c r="M38" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N38" t="n">
-        <v>447.0280453124392</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O38" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P38" t="n">
         <v>433.6515619588832</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>37.16554713105243</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L39" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N39" t="n">
-        <v>658.7614942451607</v>
+        <v>368.626811737848</v>
       </c>
       <c r="O39" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K41" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L41" t="n">
-        <v>275.9186603338276</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N41" t="n">
-        <v>633.6441091513602</v>
+        <v>522.6088585052271</v>
       </c>
       <c r="O41" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P41" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q41" t="n">
         <v>247.6524856312129</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>332.7559639452625</v>
@@ -37867,13 +37867,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N42" t="n">
-        <v>248.7689815793677</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O42" t="n">
-        <v>554.9858674269929</v>
+        <v>257.244240008109</v>
       </c>
       <c r="P42" t="n">
         <v>428.2502711927643</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>142.7188989979268</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K44" t="n">
-        <v>265.1496620711948</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L44" t="n">
-        <v>366.2161088634757</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>439.4753141521137</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N44" t="n">
-        <v>451.2468966962618</v>
+        <v>563.4805295933761</v>
       </c>
       <c r="O44" t="n">
-        <v>412.6296878387752</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P44" t="n">
-        <v>317.320396228044</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q44" t="n">
-        <v>189.6350624384688</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R44" t="n">
-        <v>24.03732366427519</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>192.0855076420508</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K45" t="n">
-        <v>456.2045690198927</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L45" t="n">
-        <v>304.6076395983404</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M45" t="n">
-        <v>375.0151400902926</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N45" t="n">
-        <v>399.4948617396896</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O45" t="n">
-        <v>343.0155132610399</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P45" t="n">
-        <v>316.7101746088648</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q45" t="n">
-        <v>120.5532711010011</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R45" t="n">
-        <v>26.5647503603961</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>27.61748182628833</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>176.5323263084932</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L46" t="n">
-        <v>281.9879074019113</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8107744650524</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N46" t="n">
-        <v>305.9812337764082</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O46" t="n">
-        <v>266.4451176130444</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P46" t="n">
-        <v>204.2315630567353</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.12148936456056</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_6_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>431889.0009836453</v>
+        <v>490742.4063030186</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3840854.495975446</v>
+        <v>3842442.348868398</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10457196.99249322</v>
+        <v>10498891.99518631</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8566164.688334364</v>
+        <v>8545531.187744074</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
@@ -712,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>212.285385643442</v>
       </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>89.66547645067541</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
     </row>
     <row r="4">
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>28.25887585634902</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>208.6835142066282</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -983,19 +983,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3356148920818</v>
+        <v>135.3413673005375</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>17.37414591949781</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>137.0815656650981</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>184.6873296566787</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>111.1907825699907</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>25.68749473272653</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>38.05191990147986</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1460,7 +1460,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>145.069212393384</v>
       </c>
       <c r="G12" t="n">
         <v>136.0669836643703</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1539,10 +1539,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>96.68236899921457</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1584,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>76.94956457708285</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>412.9169039459368</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>59.34552345375467</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,7 +1666,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V14" t="n">
-        <v>73.21442268269193</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.0669836643704</v>
       </c>
       <c r="H15" t="n">
         <v>99.90681807664345</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.46149937367052</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>65.44321853360977</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>98.43948891920624</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281402</v>
+        <v>82.16753728005023</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.260654658097</v>
+        <v>262.9418526204475</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>228.7932641399353</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>111.8324866849702</v>
       </c>
       <c r="T20" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>162.9007437950951</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>165.3608563416214</v>
+        <v>19.59299030330406</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>212.651863114966</v>
+        <v>88.62471037743227</v>
       </c>
       <c r="U23" t="n">
         <v>251.1547862223006</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.2457390334737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>205.3658819001186</v>
+        <v>191.442026261026</v>
       </c>
       <c r="T25" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>155.6549124528995</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,10 +2566,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>352.9293923433048</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>211.573730472105</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2718,16 +2718,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>165.0140383262353</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>96.28341974437096</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>73.32483345898156</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>94.70313292997028</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>45.73305741335789</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>271.7050564808889</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>286.6697573888769</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>412.9169039459368</v>
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>229.0346803645784</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>122.1022459852816</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.260654658097</v>
+        <v>198.7332967307466</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>61.23399046036337</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V35" t="n">
-        <v>70.78807224732944</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,13 +3432,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>151.4367380906166</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>259.1180275670284</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>390.9004943647347</v>
       </c>
       <c r="G38" t="n">
         <v>412.9169039459368</v>
@@ -3556,22 +3556,22 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>170.0785504138067</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T40" t="n">
-        <v>165.0140383262353</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U40" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>22.53590636345496</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>238.5045136226533</v>
+        <v>219.2515972337442</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>99.90681807664345</v>
       </c>
       <c r="I42" t="n">
-        <v>45.44580843958667</v>
+        <v>45.4458084395873</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>75.47056129231233</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>194.1129289370697</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>156.75618931435</v>
       </c>
       <c r="G44" t="n">
-        <v>107.5759848528688</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.1547862223006</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>60.91731084343987</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U46" t="n">
-        <v>227.0289503706757</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4360,22 +4360,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
         <v>749.627473042513</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="3">
@@ -4412,16 +4412,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4436,22 +4436,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>588.4532163200711</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V3" t="n">
-        <v>353.3011080883284</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W3" t="n">
-        <v>109.8523314442283</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4512,7 +4512,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
         <v>19.28114311021272</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>295.1424006267615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>48.10933763570858</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>48.10933763570858</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>48.10933763570858</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>48.10933763570858</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>48.10933763570858</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>48.10933763570858</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>978.2509294445696</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>978.2509294445696</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>767.4595009530259</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T5" t="n">
-        <v>542.1754636178144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U5" t="n">
-        <v>542.1754636178144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V5" t="n">
-        <v>542.1754636178144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>542.1754636178144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>542.1754636178144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.1424006267615</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>612.9942845540484</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="C6" t="n">
-        <v>612.9942845540484</v>
+        <v>655.1273272985679</v>
       </c>
       <c r="D6" t="n">
-        <v>464.059874892797</v>
+        <v>506.1929176373167</v>
       </c>
       <c r="E6" t="n">
-        <v>304.8224198873415</v>
+        <v>506.1929176373167</v>
       </c>
       <c r="F6" t="n">
-        <v>158.2878619142265</v>
+        <v>359.6583596642016</v>
       </c>
       <c r="G6" t="n">
-        <v>19.56501858889139</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H6" t="n">
-        <v>19.56501858889139</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>146.1858617037014</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>239.4861551219973</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>481.6032601595282</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>481.6032601595282</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>723.7203651970592</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>907.8577401332358</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>877.5769898880284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>877.5769898880284</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>860.0273475451013</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>860.0273475451013</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>860.0273475451013</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>612.9942845540484</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>612.9942845540484</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y6" t="n">
-        <v>612.9942845540484</v>
+        <v>655.1273272985679</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.56501858889139</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>473.5132653508255</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C8" t="n">
-        <v>473.5132653508255</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D8" t="n">
-        <v>473.5132653508255</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>473.5132653508255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>207.6122209552027</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573682</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142361</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098024</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369329</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.137187388514</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806667</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>907.4554057415451</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>698.4535282668857</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>473.5132653508255</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U8" t="n">
-        <v>473.5132653508255</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V8" t="n">
-        <v>473.5132653508255</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W8" t="n">
-        <v>473.5132653508255</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X8" t="n">
-        <v>473.5132653508255</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y8" t="n">
-        <v>473.5132653508255</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613333</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613333</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613333</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109958</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231457</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>600.5536970360757</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>860.9667611285678</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>850.9830782217423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>622.7627494639471</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V9" t="n">
-        <v>387.6106412322044</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W9" t="n">
-        <v>133.3732845040028</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X9" t="n">
-        <v>21.05936271613333</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613333</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360296</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955239</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486497</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716483</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706535</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613333</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>880.774606092793</v>
+        <v>2088.691607501659</v>
       </c>
       <c r="C11" t="n">
-        <v>880.774606092793</v>
+        <v>2062.744643125167</v>
       </c>
       <c r="D11" t="n">
-        <v>880.774606092793</v>
+        <v>1704.478944518417</v>
       </c>
       <c r="E11" t="n">
-        <v>880.774606092793</v>
+        <v>1318.690691920173</v>
       </c>
       <c r="F11" t="n">
-        <v>469.7887013031854</v>
+        <v>907.7047871305651</v>
       </c>
       <c r="G11" t="n">
-        <v>52.70091953961285</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H11" t="n">
-        <v>52.70091953961285</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I11" t="n">
         <v>52.70091953961285</v>
@@ -5047,13 +5047,13 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L11" t="n">
-        <v>1197.621189819594</v>
+        <v>784.1365874146478</v>
       </c>
       <c r="M11" t="n">
-        <v>1384.320602645002</v>
+        <v>970.8360002400555</v>
       </c>
       <c r="N11" t="n">
-        <v>1578.654815536984</v>
+        <v>1413.39376509937</v>
       </c>
       <c r="O11" t="n">
         <v>1960.554969866447</v>
@@ -5071,22 +5071,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T11" t="n">
-        <v>2264.031077745182</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U11" t="n">
-        <v>2010.339374490333</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V11" t="n">
-        <v>1679.276487146762</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="W11" t="n">
-        <v>1640.840204417995</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="X11" t="n">
-        <v>1267.374446156915</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="Y11" t="n">
-        <v>1267.374446156915</v>
+        <v>2088.691607501659</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>966.1226039662183</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C12" t="n">
-        <v>791.6695746850913</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D12" t="n">
-        <v>642.73516502384</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E12" t="n">
-        <v>483.4977100183844</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F12" t="n">
-        <v>336.9631520452695</v>
+        <v>336.9631520452699</v>
       </c>
       <c r="G12" t="n">
-        <v>199.5217544044913</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H12" t="n">
-        <v>98.60577654929602</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I12" t="n">
-        <v>52.70091953961264</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J12" t="n">
-        <v>52.70091953961264</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K12" t="n">
-        <v>382.1293238454225</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L12" t="n">
-        <v>886.4908637115411</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M12" t="n">
-        <v>1065.988200066146</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N12" t="n">
         <v>1430.928743686615</v>
@@ -5138,10 +5138,10 @@
         <v>1980.364752439338</v>
       </c>
       <c r="P12" t="n">
-        <v>2404.332520920174</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q12" t="n">
-        <v>2635.045976980642</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="R12" t="n">
         <v>2613.934077382829</v>
@@ -5153,19 +5153,19 @@
         <v>2267.477992405552</v>
       </c>
       <c r="U12" t="n">
-        <v>2039.339204916717</v>
+        <v>2039.339204916718</v>
       </c>
       <c r="V12" t="n">
         <v>1804.187096684975</v>
       </c>
       <c r="W12" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X12" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y12" t="n">
-        <v>1134.337940986286</v>
+        <v>1134.337940986287</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>202.8175589519486</v>
+        <v>616.3026479628311</v>
       </c>
       <c r="C13" t="n">
-        <v>202.8175589519486</v>
+        <v>447.3664650349242</v>
       </c>
       <c r="D13" t="n">
-        <v>52.70091953961285</v>
+        <v>297.2498256225884</v>
       </c>
       <c r="E13" t="n">
-        <v>52.70091953961285</v>
+        <v>297.2498256225884</v>
       </c>
       <c r="F13" t="n">
-        <v>52.70091953961285</v>
+        <v>150.3598781246781</v>
       </c>
       <c r="G13" t="n">
         <v>52.70091953961285</v>
@@ -5232,19 +5232,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U13" t="n">
-        <v>974.9087680928134</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V13" t="n">
-        <v>720.2242798869265</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="W13" t="n">
-        <v>430.8071098499659</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="X13" t="n">
-        <v>202.8175589519486</v>
+        <v>797.9511127930708</v>
       </c>
       <c r="Y13" t="n">
-        <v>202.8175589519486</v>
+        <v>797.9511127930708</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1197.016916850348</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="C14" t="n">
-        <v>828.0543999099359</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="D14" t="n">
-        <v>469.7887013031854</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="E14" t="n">
-        <v>469.7887013031854</v>
+        <v>940.7195792784037</v>
       </c>
       <c r="F14" t="n">
-        <v>469.7887013031854</v>
+        <v>529.7336744887962</v>
       </c>
       <c r="G14" t="n">
-        <v>52.70091953961285</v>
+        <v>112.6458927252236</v>
       </c>
       <c r="H14" t="n">
-        <v>52.70091953961285</v>
+        <v>112.6458927252236</v>
       </c>
       <c r="I14" t="n">
         <v>52.70091953961285</v>
@@ -5314,16 +5314,16 @@
         <v>2010.339374490333</v>
       </c>
       <c r="V14" t="n">
-        <v>1936.385412184583</v>
+        <v>1679.276487146762</v>
       </c>
       <c r="W14" t="n">
-        <v>1583.616756914469</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="X14" t="n">
-        <v>1583.616756914469</v>
+        <v>1326.507831876648</v>
       </c>
       <c r="Y14" t="n">
-        <v>1583.616756914469</v>
+        <v>1326.507831876648</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C15" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D15" t="n">
-        <v>642.7351650238404</v>
+        <v>642.7351650238405</v>
       </c>
       <c r="E15" t="n">
-        <v>483.4977100183849</v>
+        <v>483.497710018385</v>
       </c>
       <c r="F15" t="n">
-        <v>336.9631520452699</v>
+        <v>336.96315204527</v>
       </c>
       <c r="G15" t="n">
         <v>199.5217544044918</v>
@@ -5354,22 +5354,22 @@
         <v>98.60577654929637</v>
       </c>
       <c r="I15" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J15" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K15" t="n">
-        <v>382.1293238454227</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L15" t="n">
-        <v>886.4908637115414</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M15" t="n">
-        <v>1065.988200066146</v>
+        <v>922.8268672805889</v>
       </c>
       <c r="N15" t="n">
-        <v>1430.928743686615</v>
+        <v>1575.000746583298</v>
       </c>
       <c r="O15" t="n">
         <v>1980.364752439338</v>
@@ -5396,10 +5396,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W15" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X15" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y15" t="n">
         <v>1134.337940986287</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>221.6371024675198</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="C16" t="n">
         <v>52.70091953961285</v>
@@ -5460,28 +5460,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R16" t="n">
-        <v>1052.635600998958</v>
+        <v>1031.967419813432</v>
       </c>
       <c r="S16" t="n">
-        <v>1052.635600998958</v>
+        <v>824.5271350658372</v>
       </c>
       <c r="T16" t="n">
-        <v>1052.635600998958</v>
+        <v>824.5271350658372</v>
       </c>
       <c r="U16" t="n">
-        <v>986.5313398538973</v>
+        <v>535.3749586435171</v>
       </c>
       <c r="V16" t="n">
-        <v>731.8468516480104</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="W16" t="n">
-        <v>442.4296816110499</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X16" t="n">
-        <v>442.4296816110499</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y16" t="n">
-        <v>221.6371024675198</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1365.996685882155</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="C17" t="n">
-        <v>1365.996685882155</v>
+        <v>1207.740775534215</v>
       </c>
       <c r="D17" t="n">
-        <v>1266.562858691037</v>
+        <v>849.4750769274647</v>
       </c>
       <c r="E17" t="n">
-        <v>880.774606092793</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F17" t="n">
-        <v>469.7887013031854</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G17" t="n">
         <v>52.70091953961285</v>
@@ -5515,16 +5515,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J17" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K17" t="n">
-        <v>644.8079315733946</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L17" t="n">
-        <v>784.1365874146478</v>
+        <v>1030.215540799241</v>
       </c>
       <c r="M17" t="n">
-        <v>1219.059552207387</v>
+        <v>1216.914953624649</v>
       </c>
       <c r="N17" t="n">
         <v>1413.39376509937</v>
@@ -5542,25 +5542,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S17" t="n">
-        <v>2478.830939477471</v>
+        <v>2552.048464576551</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.830939477471</v>
+        <v>2337.248602844263</v>
       </c>
       <c r="U17" t="n">
-        <v>2478.830939477471</v>
+        <v>2337.248602844263</v>
       </c>
       <c r="V17" t="n">
-        <v>2478.830939477471</v>
+        <v>2337.248602844263</v>
       </c>
       <c r="W17" t="n">
-        <v>2126.062284207356</v>
+        <v>1984.479947574149</v>
       </c>
       <c r="X17" t="n">
-        <v>1752.596525946276</v>
+        <v>1984.479947574149</v>
       </c>
       <c r="Y17" t="n">
-        <v>1752.596525946276</v>
+        <v>1594.340615598337</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J18" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K18" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L18" t="n">
-        <v>519.3589218611166</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M18" t="n">
-        <v>778.7548643839062</v>
+        <v>1232.27200203395</v>
       </c>
       <c r="N18" t="n">
         <v>1430.928743686615</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>350.7306525343417</v>
+        <v>497.620600032252</v>
       </c>
       <c r="C19" t="n">
-        <v>350.7306525343417</v>
+        <v>497.620600032252</v>
       </c>
       <c r="D19" t="n">
-        <v>200.614013122006</v>
+        <v>347.5039606199163</v>
       </c>
       <c r="E19" t="n">
-        <v>52.70091953961285</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F19" t="n">
         <v>52.70091953961285</v>
@@ -5706,19 +5706,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U19" t="n">
-        <v>763.4834245766374</v>
+        <v>787.0377700692127</v>
       </c>
       <c r="V19" t="n">
-        <v>763.4834245766374</v>
+        <v>787.0377700692127</v>
       </c>
       <c r="W19" t="n">
-        <v>532.3791173645815</v>
+        <v>497.620600032252</v>
       </c>
       <c r="X19" t="n">
-        <v>532.3791173645815</v>
+        <v>497.620600032252</v>
       </c>
       <c r="Y19" t="n">
-        <v>532.3791173645815</v>
+        <v>497.620600032252</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>421.6634364800246</v>
+        <v>1894.926407702117</v>
       </c>
       <c r="C20" t="n">
-        <v>52.70091953961285</v>
+        <v>1525.963890761706</v>
       </c>
       <c r="D20" t="n">
-        <v>52.70091953961285</v>
+        <v>1167.698192154955</v>
       </c>
       <c r="E20" t="n">
-        <v>52.70091953961285</v>
+        <v>781.9099395567109</v>
       </c>
       <c r="F20" t="n">
-        <v>52.70091953961285</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="G20" t="n">
-        <v>52.70091953961285</v>
+        <v>370.9240347671034</v>
       </c>
       <c r="H20" t="n">
         <v>52.70091953961285</v>
@@ -5761,10 +5761,10 @@
         <v>784.1365874146478</v>
       </c>
       <c r="M20" t="n">
-        <v>970.8360002400555</v>
+        <v>1163.078276489641</v>
       </c>
       <c r="N20" t="n">
-        <v>1413.39376509937</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O20" t="n">
         <v>1960.554969866447</v>
@@ -5779,25 +5779,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S20" t="n">
-        <v>2635.045976980643</v>
+        <v>2522.083869218046</v>
       </c>
       <c r="T20" t="n">
-        <v>2420.246115248354</v>
+        <v>2522.083869218046</v>
       </c>
       <c r="U20" t="n">
-        <v>2255.699909394722</v>
+        <v>2268.392165963197</v>
       </c>
       <c r="V20" t="n">
-        <v>1924.637022051152</v>
+        <v>2268.392165963197</v>
       </c>
       <c r="W20" t="n">
-        <v>1571.868366781038</v>
+        <v>2268.392165963197</v>
       </c>
       <c r="X20" t="n">
-        <v>1198.402608519958</v>
+        <v>1894.926407702117</v>
       </c>
       <c r="Y20" t="n">
-        <v>808.2632765441464</v>
+        <v>1894.926407702117</v>
       </c>
     </row>
     <row r="21">
@@ -5831,16 +5831,16 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J21" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K21" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L21" t="n">
-        <v>519.3589218611166</v>
+        <v>1005.150115568437</v>
       </c>
       <c r="M21" t="n">
-        <v>1159.904271328221</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N21" t="n">
         <v>1430.928743686615</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>368.1977120421399</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="C22" t="n">
-        <v>368.1977120421399</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D22" t="n">
-        <v>368.1977120421399</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="E22" t="n">
-        <v>368.1977120421399</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="F22" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G22" t="n">
         <v>52.70091953961285</v>
@@ -5943,19 +5943,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U22" t="n">
-        <v>1052.635600998958</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V22" t="n">
-        <v>1052.635600998958</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W22" t="n">
-        <v>763.218430961997</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="X22" t="n">
-        <v>535.2288800639797</v>
+        <v>219.3817663337899</v>
       </c>
       <c r="Y22" t="n">
-        <v>535.2288800639797</v>
+        <v>219.3817663337899</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1239.040304699543</v>
+        <v>1608.002821639955</v>
       </c>
       <c r="C23" t="n">
         <v>1239.040304699543</v>
@@ -5995,7 +5995,7 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L23" t="n">
-        <v>784.1365874146478</v>
+        <v>1032.36013938198</v>
       </c>
       <c r="M23" t="n">
         <v>1219.059552207387</v>
@@ -6019,22 +6019,22 @@
         <v>2635.045976980643</v>
       </c>
       <c r="T23" t="n">
-        <v>2420.246115248354</v>
+        <v>2545.526067508489</v>
       </c>
       <c r="U23" t="n">
-        <v>2166.554411993505</v>
+        <v>2291.83436425364</v>
       </c>
       <c r="V23" t="n">
-        <v>1835.491524649934</v>
+        <v>1960.771476910069</v>
       </c>
       <c r="W23" t="n">
-        <v>1482.72286937982</v>
+        <v>1608.002821639955</v>
       </c>
       <c r="X23" t="n">
-        <v>1482.72286937982</v>
+        <v>1608.002821639955</v>
       </c>
       <c r="Y23" t="n">
-        <v>1239.040304699543</v>
+        <v>1608.002821639955</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>966.1226039662187</v>
+        <v>966.1226039662188</v>
       </c>
       <c r="C24" t="n">
-        <v>791.6695746850917</v>
+        <v>791.6695746850918</v>
       </c>
       <c r="D24" t="n">
         <v>642.7351650238404</v>
@@ -6068,25 +6068,25 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J24" t="n">
-        <v>52.70091953961285</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K24" t="n">
-        <v>382.1293238454227</v>
+        <v>238.9679910598655</v>
       </c>
       <c r="L24" t="n">
-        <v>661.4641707288301</v>
+        <v>743.329530925984</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.009520195935</v>
+        <v>1383.874880393089</v>
       </c>
       <c r="N24" t="n">
-        <v>1954.183399498644</v>
+        <v>2036.048759695798</v>
       </c>
       <c r="O24" t="n">
-        <v>2503.619408251367</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P24" t="n">
-        <v>2612.309035778665</v>
+        <v>2404.332520920175</v>
       </c>
       <c r="Q24" t="n">
         <v>2635.045976980643</v>
@@ -6107,10 +6107,10 @@
         <v>1804.187096684975</v>
       </c>
       <c r="W24" t="n">
-        <v>1549.949739956773</v>
+        <v>1549.949739956774</v>
       </c>
       <c r="X24" t="n">
-        <v>1342.09823975124</v>
+        <v>1342.098239751241</v>
       </c>
       <c r="Y24" t="n">
         <v>1134.337940986287</v>
@@ -6174,25 +6174,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S25" t="n">
-        <v>845.195316251363</v>
+        <v>859.2598168969112</v>
       </c>
       <c r="T25" t="n">
-        <v>619.566119563728</v>
+        <v>859.2598168969112</v>
       </c>
       <c r="U25" t="n">
-        <v>619.566119563728</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="V25" t="n">
-        <v>619.566119563728</v>
+        <v>570.1076404745909</v>
       </c>
       <c r="W25" t="n">
-        <v>462.3389352678699</v>
+        <v>280.6904704376302</v>
       </c>
       <c r="X25" t="n">
-        <v>234.3493843698525</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="Y25" t="n">
-        <v>234.3493843698525</v>
+        <v>52.70091953961285</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1522.211723385327</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="C26" t="n">
-        <v>1153.249206444915</v>
+        <v>1624.828557297788</v>
       </c>
       <c r="D26" t="n">
-        <v>794.983507838165</v>
+        <v>1266.562858691037</v>
       </c>
       <c r="E26" t="n">
-        <v>409.1952552399208</v>
+        <v>880.774606092793</v>
       </c>
       <c r="F26" t="n">
-        <v>52.70091953961286</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="G26" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H26" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I26" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J26" t="n">
         <v>241.3408185533492</v>
@@ -6235,13 +6235,13 @@
         <v>1032.36013938198</v>
       </c>
       <c r="M26" t="n">
-        <v>1219.059552207388</v>
+        <v>1219.059552207387</v>
       </c>
       <c r="N26" t="n">
         <v>1413.39376509937</v>
       </c>
       <c r="O26" t="n">
-        <v>1960.554969866448</v>
+        <v>1960.554969866447</v>
       </c>
       <c r="P26" t="n">
         <v>2389.870016205742</v>
@@ -6253,25 +6253,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S26" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T26" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U26" t="n">
-        <v>2635.045976980643</v>
+        <v>2225.139236222622</v>
       </c>
       <c r="V26" t="n">
-        <v>2635.045976980643</v>
+        <v>2011.428397361909</v>
       </c>
       <c r="W26" t="n">
-        <v>2282.277321710529</v>
+        <v>2011.428397361909</v>
       </c>
       <c r="X26" t="n">
-        <v>1908.811563449449</v>
+        <v>2011.428397361909</v>
       </c>
       <c r="Y26" t="n">
-        <v>1908.811563449449</v>
+        <v>2011.428397361909</v>
       </c>
     </row>
     <row r="27">
@@ -6296,40 +6296,40 @@
         <v>336.9631520452699</v>
       </c>
       <c r="G27" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044918</v>
       </c>
       <c r="H27" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I27" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J27" t="n">
-        <v>171.3601713965085</v>
+        <v>89.49481119935454</v>
       </c>
       <c r="K27" t="n">
-        <v>500.7885757023184</v>
+        <v>157.1026308627116</v>
       </c>
       <c r="L27" t="n">
-        <v>1005.150115568437</v>
+        <v>661.4641707288301</v>
       </c>
       <c r="M27" t="n">
-        <v>1232.272002033951</v>
+        <v>1302.009520195935</v>
       </c>
       <c r="N27" t="n">
-        <v>1430.928743686616</v>
+        <v>1954.183399498644</v>
       </c>
       <c r="O27" t="n">
-        <v>1980.364752439339</v>
+        <v>2503.619408251367</v>
       </c>
       <c r="P27" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778665</v>
       </c>
       <c r="Q27" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R27" t="n">
-        <v>2613.93407738283</v>
+        <v>2613.934077382829</v>
       </c>
       <c r="S27" t="n">
         <v>2464.467288245464</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>52.70091953961286</v>
+        <v>666.2274450368687</v>
       </c>
       <c r="C28" t="n">
-        <v>52.70091953961286</v>
+        <v>666.2274450368687</v>
       </c>
       <c r="D28" t="n">
-        <v>52.70091953961286</v>
+        <v>516.110805624533</v>
       </c>
       <c r="E28" t="n">
-        <v>52.70091953961286</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F28" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J28" t="n">
-        <v>52.70091953961286</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K28" t="n">
         <v>153.7488491352227</v>
@@ -6414,22 +6414,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T28" t="n">
-        <v>885.9547542047806</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U28" t="n">
-        <v>596.8025777824604</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V28" t="n">
-        <v>342.1180895765735</v>
+        <v>666.2274450368687</v>
       </c>
       <c r="W28" t="n">
-        <v>52.70091953961286</v>
+        <v>666.2274450368687</v>
       </c>
       <c r="X28" t="n">
-        <v>52.70091953961286</v>
+        <v>666.2274450368687</v>
       </c>
       <c r="Y28" t="n">
-        <v>52.70091953961286</v>
+        <v>666.2274450368687</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1197.016916850348</v>
+        <v>1190.915039876383</v>
       </c>
       <c r="C29" t="n">
-        <v>828.0543999099359</v>
+        <v>821.9525229359709</v>
       </c>
       <c r="D29" t="n">
-        <v>469.7887013031854</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="E29" t="n">
-        <v>469.7887013031854</v>
+        <v>463.6868243292204</v>
       </c>
       <c r="F29" t="n">
-        <v>469.7887013031854</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G29" t="n">
         <v>52.70091953961286</v>
@@ -6490,25 +6490,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S29" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T29" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U29" t="n">
-        <v>2010.339374490333</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V29" t="n">
-        <v>1679.276487146763</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="W29" t="n">
-        <v>1583.616756914469</v>
+        <v>2028.58561845568</v>
       </c>
       <c r="X29" t="n">
-        <v>1583.616756914469</v>
+        <v>1655.1198601946</v>
       </c>
       <c r="Y29" t="n">
-        <v>1583.616756914469</v>
+        <v>1264.980528218788</v>
       </c>
     </row>
     <row r="30">
@@ -6536,22 +6536,22 @@
         <v>199.5217544044917</v>
       </c>
       <c r="H30" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I30" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J30" t="n">
-        <v>52.70091953961286</v>
+        <v>171.3601713965085</v>
       </c>
       <c r="K30" t="n">
-        <v>382.1293238454227</v>
+        <v>500.7885757023184</v>
       </c>
       <c r="L30" t="n">
-        <v>599.2575280293017</v>
+        <v>638.0181737180123</v>
       </c>
       <c r="M30" t="n">
-        <v>778.7548643839066</v>
+        <v>817.5155100726172</v>
       </c>
       <c r="N30" t="n">
         <v>1430.928743686616</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.89592702785316</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="C31" t="n">
-        <v>98.89592702785316</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="D31" t="n">
-        <v>98.89592702785316</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="E31" t="n">
-        <v>98.89592702785316</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F31" t="n">
         <v>52.70091953961286</v>
@@ -6654,19 +6654,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U31" t="n">
-        <v>1052.635600998958</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V31" t="n">
-        <v>797.9511127930708</v>
+        <v>508.7989363707505</v>
       </c>
       <c r="W31" t="n">
-        <v>508.5339427561102</v>
+        <v>234.3493843698526</v>
       </c>
       <c r="X31" t="n">
-        <v>280.5443918580929</v>
+        <v>234.3493843698526</v>
       </c>
       <c r="Y31" t="n">
-        <v>280.5443918580929</v>
+        <v>234.3493843698526</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1993.791074238199</v>
+        <v>1582.805169448592</v>
       </c>
       <c r="C32" t="n">
-        <v>1624.828557297788</v>
+        <v>1213.84265250818</v>
       </c>
       <c r="D32" t="n">
-        <v>1266.562858691037</v>
+        <v>855.5769539014296</v>
       </c>
       <c r="E32" t="n">
-        <v>880.774606092793</v>
+        <v>469.7887013031854</v>
       </c>
       <c r="F32" t="n">
         <v>469.7887013031854</v>
@@ -6706,19 +6706,19 @@
         <v>644.8079315733946</v>
       </c>
       <c r="L32" t="n">
-        <v>784.1365874146478</v>
+        <v>1197.621189819594</v>
       </c>
       <c r="M32" t="n">
-        <v>970.8360002400555</v>
+        <v>1384.320602645002</v>
       </c>
       <c r="N32" t="n">
-        <v>1413.39376509937</v>
+        <v>1578.654815536984</v>
       </c>
       <c r="O32" t="n">
-        <v>1960.554969866448</v>
+        <v>2125.816020304062</v>
       </c>
       <c r="P32" t="n">
-        <v>2389.870016205742</v>
+        <v>2555.131066643356</v>
       </c>
       <c r="Q32" t="n">
         <v>2635.045976980643</v>
@@ -6739,13 +6739,13 @@
         <v>2225.139236222622</v>
       </c>
       <c r="W32" t="n">
-        <v>1993.791074238199</v>
+        <v>1872.370580952508</v>
       </c>
       <c r="X32" t="n">
-        <v>1993.791074238199</v>
+        <v>1872.370580952508</v>
       </c>
       <c r="Y32" t="n">
-        <v>1993.791074238199</v>
+        <v>1872.370580952508</v>
       </c>
     </row>
     <row r="33">
@@ -6773,7 +6773,7 @@
         <v>199.5217544044917</v>
       </c>
       <c r="H33" t="n">
-        <v>98.60577654929638</v>
+        <v>98.60577654929637</v>
       </c>
       <c r="I33" t="n">
         <v>52.70091953961286</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>350.7306525343417</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="C34" t="n">
-        <v>350.7306525343417</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="D34" t="n">
-        <v>200.614013122006</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="E34" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="F34" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G34" t="n">
         <v>52.70091953961286</v>
@@ -6888,22 +6888,22 @@
         <v>1052.635600998958</v>
       </c>
       <c r="T34" t="n">
-        <v>929.2999989936227</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U34" t="n">
-        <v>640.1478225713024</v>
+        <v>851.8948972305268</v>
       </c>
       <c r="V34" t="n">
-        <v>640.1478225713024</v>
+        <v>597.2104090246399</v>
       </c>
       <c r="W34" t="n">
-        <v>350.7306525343417</v>
+        <v>597.2104090246399</v>
       </c>
       <c r="X34" t="n">
-        <v>350.7306525343417</v>
+        <v>369.2208581266226</v>
       </c>
       <c r="Y34" t="n">
-        <v>350.7306525343417</v>
+        <v>369.2208581266226</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1197.016916850348</v>
+        <v>1604.615101685861</v>
       </c>
       <c r="C35" t="n">
-        <v>828.0543999099359</v>
+        <v>1235.652584745449</v>
       </c>
       <c r="D35" t="n">
-        <v>469.7887013031854</v>
+        <v>1235.652584745449</v>
       </c>
       <c r="E35" t="n">
-        <v>469.7887013031854</v>
+        <v>849.8643321472045</v>
       </c>
       <c r="F35" t="n">
-        <v>469.7887013031854</v>
+        <v>849.8643321472045</v>
       </c>
       <c r="G35" t="n">
-        <v>52.70091953961286</v>
+        <v>432.776550383632</v>
       </c>
       <c r="H35" t="n">
-        <v>52.70091953961286</v>
+        <v>114.5534351561415</v>
       </c>
       <c r="I35" t="n">
         <v>52.70091953961286</v>
       </c>
       <c r="J35" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K35" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L35" t="n">
-        <v>784.1365874146478</v>
+        <v>683.1408478992856</v>
       </c>
       <c r="M35" t="n">
-        <v>970.8360002400555</v>
+        <v>1314.858658882597</v>
       </c>
       <c r="N35" t="n">
-        <v>1413.39376509937</v>
+        <v>1942.166326942444</v>
       </c>
       <c r="O35" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P35" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q35" t="n">
         <v>2635.045976980643</v>
@@ -6973,16 +6973,16 @@
         <v>2381.354273725794</v>
       </c>
       <c r="V35" t="n">
-        <v>2309.851170445663</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="W35" t="n">
-        <v>1957.082515175549</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="X35" t="n">
-        <v>1583.616756914469</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="Y35" t="n">
-        <v>1583.616756914469</v>
+        <v>1991.214941749982</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J36" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="K36" t="n">
-        <v>500.7885757023184</v>
+        <v>120.3087392029699</v>
       </c>
       <c r="L36" t="n">
-        <v>914.5356689828395</v>
+        <v>624.6702790690885</v>
       </c>
       <c r="M36" t="n">
-        <v>1094.033005337444</v>
+        <v>1265.215628536193</v>
       </c>
       <c r="N36" t="n">
-        <v>1746.206884640153</v>
+        <v>1638.905258545106</v>
       </c>
       <c r="O36" t="n">
-        <v>2295.642893392876</v>
+        <v>2188.341267297829</v>
       </c>
       <c r="P36" t="n">
-        <v>2404.332520920175</v>
+        <v>2612.309035778666</v>
       </c>
       <c r="Q36" t="n">
         <v>2635.045976980643</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.70091953961286</v>
+        <v>353.5804152337399</v>
       </c>
       <c r="C37" t="n">
-        <v>52.70091953961286</v>
+        <v>353.5804152337399</v>
       </c>
       <c r="D37" t="n">
-        <v>52.70091953961286</v>
+        <v>353.5804152337399</v>
       </c>
       <c r="E37" t="n">
-        <v>52.70091953961286</v>
+        <v>205.6673216513468</v>
       </c>
       <c r="F37" t="n">
-        <v>52.70091953961286</v>
+        <v>205.6673216513468</v>
       </c>
       <c r="G37" t="n">
         <v>52.70091953961286</v>
@@ -7128,19 +7128,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U37" t="n">
-        <v>790.9002196181209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="V37" t="n">
-        <v>790.9002196181209</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="W37" t="n">
-        <v>501.4830495811603</v>
+        <v>763.218430961997</v>
       </c>
       <c r="X37" t="n">
-        <v>273.4934986831429</v>
+        <v>535.2288800639797</v>
       </c>
       <c r="Y37" t="n">
-        <v>52.70091953961286</v>
+        <v>535.2288800639797</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1249.737123033205</v>
+        <v>1233.6002024504</v>
       </c>
       <c r="C38" t="n">
-        <v>880.774606092793</v>
+        <v>864.6376855099882</v>
       </c>
       <c r="D38" t="n">
-        <v>880.774606092793</v>
+        <v>864.6376855099882</v>
       </c>
       <c r="E38" t="n">
-        <v>880.774606092793</v>
+        <v>864.6376855099882</v>
       </c>
       <c r="F38" t="n">
         <v>469.7887013031854</v>
@@ -7174,25 +7174,25 @@
         <v>52.70091953961286</v>
       </c>
       <c r="J38" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K38" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L38" t="n">
-        <v>964.333920674194</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M38" t="n">
-        <v>1596.051731657506</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N38" t="n">
-        <v>1790.385944549488</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O38" t="n">
-        <v>1960.554969866448</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P38" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959048</v>
       </c>
       <c r="Q38" t="n">
         <v>2635.045976980643</v>
@@ -7204,22 +7204,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U38" t="n">
-        <v>2478.830939477471</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="V38" t="n">
-        <v>2147.7680521339</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="W38" t="n">
-        <v>1794.999396863786</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="X38" t="n">
-        <v>1421.533638602706</v>
+        <v>2010.339374490333</v>
       </c>
       <c r="Y38" t="n">
-        <v>1249.737123033205</v>
+        <v>1620.200042514522</v>
       </c>
     </row>
     <row r="39">
@@ -7262,10 +7262,10 @@
         <v>886.4908637115414</v>
       </c>
       <c r="M39" t="n">
-        <v>1065.988200066146</v>
+        <v>1168.678560467869</v>
       </c>
       <c r="N39" t="n">
-        <v>1430.928743686616</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O39" t="n">
         <v>1980.364752439339</v>
@@ -7359,19 +7359,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S40" t="n">
-        <v>1052.635600998958</v>
+        <v>845.195316251363</v>
       </c>
       <c r="T40" t="n">
-        <v>885.9547542047806</v>
+        <v>619.566119563728</v>
       </c>
       <c r="U40" t="n">
-        <v>596.8025777824604</v>
+        <v>619.566119563728</v>
       </c>
       <c r="V40" t="n">
-        <v>342.1180895765735</v>
+        <v>364.8816313578411</v>
       </c>
       <c r="W40" t="n">
-        <v>52.70091953961286</v>
+        <v>75.4644613208805</v>
       </c>
       <c r="X40" t="n">
         <v>52.70091953961286</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1266.562858691037</v>
+        <v>1358.733275299433</v>
       </c>
       <c r="C41" t="n">
-        <v>1266.562858691037</v>
+        <v>1358.733275299433</v>
       </c>
       <c r="D41" t="n">
-        <v>1266.562858691037</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="E41" t="n">
-        <v>880.774606092793</v>
+        <v>1000.467576692682</v>
       </c>
       <c r="F41" t="n">
-        <v>469.7887013031854</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G41" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H41" t="n">
-        <v>52.70091953961286</v>
+        <v>172.393890139502</v>
       </c>
       <c r="I41" t="n">
         <v>52.70091953961286</v>
@@ -7420,16 +7420,16 @@
         <v>709.3115823537878</v>
       </c>
       <c r="M41" t="n">
-        <v>896.0109951791954</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N41" t="n">
-        <v>1413.39376509937</v>
+        <v>1535.363606229082</v>
       </c>
       <c r="O41" t="n">
-        <v>1960.554969866448</v>
+        <v>2082.524810996159</v>
       </c>
       <c r="P41" t="n">
-        <v>2389.870016205742</v>
+        <v>2511.839857335454</v>
       </c>
       <c r="Q41" t="n">
         <v>2635.045976980643</v>
@@ -7441,22 +7441,22 @@
         <v>2478.830939477471</v>
       </c>
       <c r="T41" t="n">
-        <v>2478.830939477471</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="U41" t="n">
-        <v>2225.139236222622</v>
+        <v>2264.031077745182</v>
       </c>
       <c r="V41" t="n">
-        <v>1894.076348879051</v>
+        <v>1932.968190401612</v>
       </c>
       <c r="W41" t="n">
-        <v>1894.076348879051</v>
+        <v>1580.199535131497</v>
       </c>
       <c r="X41" t="n">
-        <v>1653.162698755159</v>
+        <v>1358.733275299433</v>
       </c>
       <c r="Y41" t="n">
-        <v>1653.162698755159</v>
+        <v>1358.733275299433</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>966.1226039662188</v>
+        <v>966.1226039662192</v>
       </c>
       <c r="C42" t="n">
-        <v>791.6695746850918</v>
+        <v>791.6695746850922</v>
       </c>
       <c r="D42" t="n">
-        <v>642.7351650238404</v>
+        <v>642.735165023841</v>
       </c>
       <c r="E42" t="n">
-        <v>483.4977100183849</v>
+        <v>483.4977100183855</v>
       </c>
       <c r="F42" t="n">
-        <v>336.9631520452699</v>
+        <v>336.9631520452705</v>
       </c>
       <c r="G42" t="n">
-        <v>199.5217544044917</v>
+        <v>199.5217544044924</v>
       </c>
       <c r="H42" t="n">
-        <v>98.60577654929638</v>
+        <v>98.605776549297</v>
       </c>
       <c r="I42" t="n">
         <v>52.70091953961286</v>
@@ -7499,10 +7499,10 @@
         <v>886.4908637115414</v>
       </c>
       <c r="M42" t="n">
-        <v>1527.036213178646</v>
+        <v>1065.988200066146</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.692954831311</v>
+        <v>1718.162079368855</v>
       </c>
       <c r="O42" t="n">
         <v>1980.364752439339</v>
@@ -7517,7 +7517,7 @@
         <v>2613.93407738283</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.467288245464</v>
+        <v>2464.467288245465</v>
       </c>
       <c r="T42" t="n">
         <v>2267.477992405552</v>
@@ -7526,7 +7526,7 @@
         <v>2039.339204916718</v>
       </c>
       <c r="V42" t="n">
-        <v>1804.187096684975</v>
+        <v>1804.187096684976</v>
       </c>
       <c r="W42" t="n">
         <v>1549.949739956774</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>518.6436893777659</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="C43" t="n">
-        <v>349.707506449859</v>
+        <v>594.5472416487305</v>
       </c>
       <c r="D43" t="n">
-        <v>199.5908670375232</v>
+        <v>444.4306022363947</v>
       </c>
       <c r="E43" t="n">
-        <v>199.5908670375232</v>
+        <v>368.1977120421399</v>
       </c>
       <c r="F43" t="n">
-        <v>52.70091953961286</v>
+        <v>221.3077645442295</v>
       </c>
       <c r="G43" t="n">
         <v>52.70091953961286</v>
@@ -7593,28 +7593,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R43" t="n">
-        <v>922.1576397183603</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="S43" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T43" t="n">
-        <v>714.7173549707657</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="U43" t="n">
-        <v>714.7173549707657</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="V43" t="n">
-        <v>714.7173549707657</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="W43" t="n">
-        <v>518.6436893777659</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="X43" t="n">
-        <v>518.6436893777659</v>
+        <v>763.4834245766374</v>
       </c>
       <c r="Y43" t="n">
-        <v>518.6436893777659</v>
+        <v>763.4834245766374</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1326.507831876648</v>
+        <v>1324.056972851029</v>
       </c>
       <c r="C44" t="n">
-        <v>957.5453149362368</v>
+        <v>955.0944559106176</v>
       </c>
       <c r="D44" t="n">
-        <v>599.2796163294863</v>
+        <v>596.8287573038672</v>
       </c>
       <c r="E44" t="n">
-        <v>599.2796163294863</v>
+        <v>211.0405047056229</v>
       </c>
       <c r="F44" t="n">
-        <v>599.2796163294863</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G44" t="n">
-        <v>490.6170053669925</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="H44" t="n">
-        <v>172.393890139502</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="I44" t="n">
         <v>52.70091953961286</v>
@@ -7651,22 +7651,22 @@
         <v>241.3408185533492</v>
       </c>
       <c r="K44" t="n">
-        <v>644.8079315733946</v>
+        <v>323.9039731279416</v>
       </c>
       <c r="L44" t="n">
-        <v>1197.621189819594</v>
+        <v>876.7172313741407</v>
       </c>
       <c r="M44" t="n">
-        <v>1384.320602645002</v>
+        <v>1508.435042357452</v>
       </c>
       <c r="N44" t="n">
-        <v>1942.166326942444</v>
+        <v>1790.385944549488</v>
       </c>
       <c r="O44" t="n">
-        <v>2489.327531709521</v>
+        <v>1960.554969866448</v>
       </c>
       <c r="P44" t="n">
-        <v>2600.061856959048</v>
+        <v>2389.870016205742</v>
       </c>
       <c r="Q44" t="n">
         <v>2635.045976980643</v>
@@ -7675,25 +7675,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S44" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T44" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U44" t="n">
-        <v>2010.339374490333</v>
+        <v>2381.354273725794</v>
       </c>
       <c r="V44" t="n">
-        <v>1679.276487146763</v>
+        <v>2050.291386382223</v>
       </c>
       <c r="W44" t="n">
-        <v>1326.507831876648</v>
+        <v>1697.522731112109</v>
       </c>
       <c r="X44" t="n">
-        <v>1326.507831876648</v>
+        <v>1324.056972851029</v>
       </c>
       <c r="Y44" t="n">
-        <v>1326.507831876648</v>
+        <v>1324.056972851029</v>
       </c>
     </row>
     <row r="45">
@@ -7739,7 +7739,7 @@
         <v>1184.647451923042</v>
       </c>
       <c r="N45" t="n">
-        <v>1430.928743686615</v>
+        <v>1820.852439770578</v>
       </c>
       <c r="O45" t="n">
         <v>1980.364752439338</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>390.2439474721364</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="C46" t="n">
-        <v>221.3077645442295</v>
+        <v>114.2335567552087</v>
       </c>
       <c r="D46" t="n">
-        <v>221.3077645442295</v>
+        <v>114.2335567552087</v>
       </c>
       <c r="E46" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="F46" t="n">
-        <v>221.3077645442295</v>
+        <v>52.70091953961286</v>
       </c>
       <c r="G46" t="n">
         <v>52.70091953961286</v>
@@ -7833,25 +7833,25 @@
         <v>1052.635600998958</v>
       </c>
       <c r="S46" t="n">
-        <v>845.195316251363</v>
+        <v>1052.635600998958</v>
       </c>
       <c r="T46" t="n">
-        <v>619.566119563728</v>
+        <v>827.0064043113226</v>
       </c>
       <c r="U46" t="n">
-        <v>390.2439474721364</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="V46" t="n">
-        <v>390.2439474721364</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="W46" t="n">
-        <v>390.2439474721364</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="X46" t="n">
-        <v>390.2439474721364</v>
+        <v>283.1697396831156</v>
       </c>
       <c r="Y46" t="n">
-        <v>390.2439474721364</v>
+        <v>283.1697396831156</v>
       </c>
     </row>
   </sheetData>
@@ -8060,19 +8060,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>231.1529892133072</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,19 +8297,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>231.0813024560196</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>384.6945110063437</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>129.2864630672354</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O6" t="n">
-        <v>385.2788254813442</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093847</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
-        <v>197.5393732613979</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.663080786811</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,16 +8695,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="O11" t="n">
-        <v>213.8698272853573</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8777,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N12" t="n">
-        <v>167.9634363311153</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298244</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,10 +9017,10 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>167.9634363311155</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>248.3350436235149</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>250.7308605730626</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>2.16626119468566</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>80.70566279614627</v>
+        <v>48.10560617263505</v>
       </c>
       <c r="N18" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9409,13 +9409,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>194.184117423824</v>
       </c>
       <c r="N20" t="n">
-        <v>250.7308605730627</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>73.098717884575</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9643,10 +9643,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M23" t="n">
-        <v>250.7308605730626</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>143.5406554219328</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9731,13 +9731,13 @@
         <v>458.0981188384286</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>101.0927485134521</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9880,7 +9880,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>250.7308605730632</v>
+        <v>250.7308605730627</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>43.39875231298058</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>48.10560617263553</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>458.0981188384286</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>80.7056627961465</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>458.0981188384287</v>
+        <v>418.9459514760947</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10354,13 +10354,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>250.7308605730631</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>45.38463668251704</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>391.2261292428727</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>250.7308605730631</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298244</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>279.3106012776032</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>458.0981188384287</v>
+        <v>176.8008973295441</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>182.017508342976</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>354.3650959551675</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298244</v>
@@ -10910,13 +10910,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>103.727636769417</v>
       </c>
       <c r="N39" t="n">
-        <v>167.963436331116</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11068,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>326.311673765851</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>89.11313093292324</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>458.0981188384287</v>
       </c>
       <c r="O42" t="n">
-        <v>96.12069185784571</v>
+        <v>103.7276367694168</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11299,28 +11299,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>367.183344854</v>
+        <v>88.50170636369029</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11387,10 +11387,10 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>48.10560617263525</v>
+        <v>441.9679254493649</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
@@ -22600,7 +22600,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -22609,10 +22609,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22676,13 +22676,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>116.1075087528021</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>170.2754303037659</v>
       </c>
     </row>
     <row r="4">
@@ -22752,10 +22752,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>120.7101594098652</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22798,16 +22798,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2879682170718</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>181.6476203504721</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>10.69576364311372</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>8.395781178313161</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>141.6752062949112</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22871,22 +22871,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>2.002149862673178</v>
       </c>
       <c r="H6" t="n">
-        <v>112.1591249337519</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.12455904281175</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22913,25 +22913,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>182.7587310772211</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9408621947163</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>7.132250799777211</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>86.81957671340953</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9172826158254</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23029,22 +23029,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900448</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>230.5228917471527</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852153</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23077,7 +23077,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23086,7 +23086,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>348.5473453077446</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23108,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>127.8460714905183</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828964</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703756</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23162,10 +23162,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>94.58220263348676</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022108</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839144</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871616</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,28 +23220,28 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598919</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>126.6879292296161</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>339.585397038281</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>311.1890488159332</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,10 +23427,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>70.23840755535586</v>
       </c>
       <c r="H13" t="n">
         <v>152.7120966692326</v>
@@ -23472,16 +23472,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
-        <v>209.3110900810141</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938903</v>
+        <v>59.15051744013563</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>254.537835787443</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677913</v>
+        <v>108.7116822941208</v>
       </c>
       <c r="S16" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>220.8174361244872</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>256.2435527014767</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
         <v>315.0408840752156</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>72.48534984808995</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.1547862223006</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.9207765545704</v>
@@ -23946,13 +23946,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>23.31880203764945</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>57.72973419665567</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>118.4960408938903</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>154.6528871281402</v>
+        <v>42.82040044317002</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>88.25404242720558</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.47112384031593</v>
+        <v>160.2389898786332</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>152.7120966692326</v>
@@ -24183,16 +24183,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,7 +24208,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>124.0271527375337</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>144.9921996225798</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24414,19 +24414,19 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>13.92385563909261</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U25" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>130.8680858836915</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94665339840662</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>315.0408840752156</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>116.1785279980299</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24606,16 +24606,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>152.7120966692326</v>
@@ -24654,16 +24654,16 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T28" t="n">
-        <v>58.35886639452337</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>155.854223579457</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>309.409008204499</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,10 +24691,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H29" t="n">
         <v>315.0408840752156</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>254.5378357874427</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>99.68799060957335</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.9207765545704</v>
@@ -24894,16 +24894,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U31" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>14.81794185570209</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>96.06408427460372</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>120.2062883528346</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>152.7120966692326</v>
@@ -25128,19 +25128,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T34" t="n">
-        <v>101.2706587354771</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>87.52735792735044</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4960408938903</v>
+        <v>57.26205043352693</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>256.9641862228054</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,13 +25320,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.9207765545704</v>
+        <v>15.48403846395385</v>
       </c>
       <c r="H37" t="n">
         <v>152.7120966692326</v>
@@ -25368,7 +25368,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U37" t="n">
-        <v>27.14262709106862</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>15.97555137697674</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25444,22 +25444,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>216.1593882422469</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25599,13 +25599,13 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S40" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>58.35886639452337</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>203.1737490255822</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>131.2265870558157</v>
+        <v>150.4795034447248</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>70.96340135425685</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>152.7120966692326</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T43" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U43" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>92.41006939952126</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25873,19 +25873,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>250.1198564273615</v>
       </c>
       <c r="G44" t="n">
-        <v>305.340919093068</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>85.51665180312929</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H46" t="n">
         <v>152.7120966692326</v>
@@ -26073,16 +26073,16 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>59.23170428742134</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490531.2536378616</v>
+        <v>490531.2536378618</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>493620.5445765711</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>509635.5853000612</v>
+        <v>490531.2536378616</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821688.179347729</v>
+        <v>821688.1793477291</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821688.1793477292</v>
+        <v>821688.179347729</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821688.1793477291</v>
+        <v>821688.1793477292</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>141236.5716516326</v>
+      </c>
+      <c r="C2" t="n">
         <v>141236.5716516325</v>
       </c>
-      <c r="C2" t="n">
-        <v>142222.1657638405</v>
-      </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>252134.9940623532</v>
@@ -26328,7 +26328,7 @@
         <v>252134.9940623532</v>
       </c>
       <c r="G2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="H2" t="n">
         <v>252134.9940623532</v>
@@ -26337,19 +26337,19 @@
         <v>252134.9940623532</v>
       </c>
       <c r="J2" t="n">
-        <v>252134.9940623531</v>
+        <v>252134.9940623532</v>
       </c>
       <c r="K2" t="n">
         <v>252134.9940623532</v>
       </c>
       <c r="L2" t="n">
+        <v>252134.9940623532</v>
+      </c>
+      <c r="M2" t="n">
         <v>252134.9940623531</v>
       </c>
-      <c r="M2" t="n">
-        <v>252134.9940623532</v>
-      </c>
       <c r="N2" t="n">
-        <v>252134.9940623532</v>
+        <v>252134.9940623531</v>
       </c>
       <c r="O2" t="n">
         <v>252134.9940623532</v>
@@ -26368,13 +26368,13 @@
         <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>4491.824968753434</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22364.98695753535</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>576404.8681646987</v>
+        <v>601530.6045241205</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>913.25580245714</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4727.563118847362</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>98565.03158297989</v>
+        <v>104104.2745664029</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>50385.00392753457</v>
+      </c>
+      <c r="C4" t="n">
+        <v>50385.00392753457</v>
+      </c>
+      <c r="D4" t="n">
         <v>50385.00392753458</v>
       </c>
-      <c r="C4" t="n">
-        <v>50404.27455704983</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50480.80391628888</v>
-      </c>
       <c r="E4" t="n">
-        <v>36133.96051511371</v>
+        <v>36133.96051511372</v>
       </c>
       <c r="F4" t="n">
         <v>36133.96051511372</v>
       </c>
       <c r="G4" t="n">
-        <v>36133.96051511372</v>
+        <v>36133.96051511371</v>
       </c>
       <c r="H4" t="n">
         <v>36133.96051511372</v>
@@ -26444,13 +26444,13 @@
         <v>36133.96051511372</v>
       </c>
       <c r="K4" t="n">
+        <v>36133.96051511373</v>
+      </c>
+      <c r="L4" t="n">
+        <v>36133.96051511372</v>
+      </c>
+      <c r="M4" t="n">
         <v>36133.96051511374</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36133.96051511373</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36133.96051511373</v>
       </c>
       <c r="N4" t="n">
         <v>36133.96051511373</v>
@@ -26472,10 +26472,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683334</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>52990.47783747558</v>
@@ -26493,7 +26493,7 @@
         <v>52990.47783747558</v>
       </c>
       <c r="J5" t="n">
-        <v>52990.47783747559</v>
+        <v>52990.47783747558</v>
       </c>
       <c r="K5" t="n">
         <v>52990.47783747559</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-50417.14319125189</v>
+        <v>-39420.93363321543</v>
       </c>
       <c r="C6" t="n">
-        <v>26588.92740361415</v>
+        <v>41348.49789833224</v>
       </c>
       <c r="D6" t="n">
-        <v>12499.89299923328</v>
+        <v>41348.49789833226</v>
       </c>
       <c r="E6" t="n">
-        <v>-419088.88646258</v>
+        <v>-439089.5062151211</v>
       </c>
       <c r="F6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="G6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="H6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="I6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="J6" t="n">
-        <v>94256.03910301239</v>
+        <v>99381.15570989314</v>
       </c>
       <c r="K6" t="n">
-        <v>156402.7258996615</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="L6" t="n">
-        <v>152588.4185832713</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="M6" t="n">
-        <v>58750.95011913887</v>
+        <v>58336.82374259643</v>
       </c>
       <c r="N6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089993</v>
       </c>
       <c r="O6" t="n">
-        <v>157315.9817021187</v>
+        <v>162441.0983089994</v>
       </c>
       <c r="P6" t="n">
-        <v>157315.9817021188</v>
+        <v>162441.0983089994</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678938</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>593.4761003380651</v>
@@ -26792,10 +26792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516666</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>658.7614942451606</v>
@@ -26813,7 +26813,7 @@
         <v>658.7614942451606</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451607</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="K4" t="n">
         <v>658.7614942451607</v>
@@ -26962,13 +26962,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>19.33951979354706</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>570.4627176512757</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>395.519460293494</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.519460293494</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>3.548443483483339</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>18.6793015905242</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>395.519460293494</v>
+        <v>417.7472053675016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>2.002255276817064</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>2.05524901609789</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.880151324242605</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.508987194773435</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.008717977782306</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367583</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887704</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381034966</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760364</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324496</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455484</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895158</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019315</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841722</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060773</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544831</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679532</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332515</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318412</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294065</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498094</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104738</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.70429296312544</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246511</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750233</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688215</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430021</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418796</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104022</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277522983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210549</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605572</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523865</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467871</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564536</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994806</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259021</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047529</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281328</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166691</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.16985017147137</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988675</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815847965</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150842</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131898</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705196</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473119</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750037</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588689</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815351</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32818,7 +32818,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T24" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U24" t="n">
         <v>0.08398246702897151</v>
@@ -33055,7 +33055,7 @@
         <v>23.71104985784626</v>
       </c>
       <c r="T27" t="n">
-        <v>5.145325813308317</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U27" t="n">
         <v>0.08398246702897151</v>
@@ -34780,19 +34780,19 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>127.8998415301111</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>94.24272062454131</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O6" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>185.9973484203803</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>71.10423162760989</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194292</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.494535815018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945113</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455864</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894759</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668208</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604671</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516666</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
-        <v>79.07191193225258</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833253</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031299</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178751</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082926</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507656</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919052</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025386</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,16 +35415,16 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M11" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N11" t="n">
-        <v>196.2971847393761</v>
+        <v>447.0280453124388</v>
       </c>
       <c r="O11" t="n">
-        <v>385.7577316459225</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P11" t="n">
         <v>433.6515619588832</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K12" t="n">
         <v>332.7559639452625</v>
@@ -35497,10 +35497,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M12" t="n">
-        <v>181.3104407622271</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6268117378473</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O12" t="n">
         <v>554.9858674269929</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L15" t="n">
         <v>509.4561008748672</v>
@@ -35737,10 +35737,10 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N15" t="n">
-        <v>368.6268117378475</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269929</v>
+        <v>409.4585917737782</v>
       </c>
       <c r="P15" t="n">
         <v>428.2502711927643</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K17" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
-        <v>439.3161260532724</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N17" t="n">
-        <v>196.2971847393761</v>
+        <v>198.4634459340618</v>
       </c>
       <c r="O17" t="n">
         <v>552.6880856233105</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K18" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>262.0161035583733</v>
+        <v>229.4160469348621</v>
       </c>
       <c r="N18" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O18" t="n">
         <v>554.9858674269929</v>
@@ -36129,13 +36129,13 @@
         <v>140.7360160012659</v>
       </c>
       <c r="M20" t="n">
-        <v>188.5852654802098</v>
+        <v>382.7693829040338</v>
       </c>
       <c r="N20" t="n">
-        <v>447.0280453124388</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P20" t="n">
         <v>433.6515619588832</v>
@@ -36199,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K21" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N21" t="n">
-        <v>273.762093291307</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269929</v>
@@ -36363,10 +36363,10 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L23" t="n">
-        <v>140.7360160012659</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M23" t="n">
-        <v>439.3161260532724</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N23" t="n">
         <v>196.2971847393761</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K24" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L24" t="n">
-        <v>282.1564109933408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M24" t="n">
         <v>647.0155045122269</v>
@@ -36451,13 +36451,13 @@
         <v>658.7614942451606</v>
       </c>
       <c r="O24" t="n">
-        <v>554.9858674269929</v>
+        <v>262.2162966637154</v>
       </c>
       <c r="P24" t="n">
         <v>109.7875025528271</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L26" t="n">
-        <v>391.466876574329</v>
+        <v>391.4668765743286</v>
       </c>
       <c r="M26" t="n">
         <v>188.5852654802098</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>119.8578301584805</v>
+        <v>37.16554713105221</v>
       </c>
       <c r="K27" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L27" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M27" t="n">
-        <v>229.4160469348626</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N27" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O27" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P27" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q27" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,19 +36910,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K30" t="n">
         <v>332.7559639452625</v>
       </c>
       <c r="L30" t="n">
-        <v>219.3214183675545</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M30" t="n">
         <v>181.3104407622271</v>
       </c>
       <c r="N30" t="n">
-        <v>658.7614942451607</v>
+        <v>619.6093268828267</v>
       </c>
       <c r="O30" t="n">
         <v>554.9858674269929</v>
@@ -37074,13 +37074,13 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L32" t="n">
-        <v>140.7360160012659</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M32" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N32" t="n">
-        <v>447.0280453124392</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O32" t="n">
         <v>552.6880856233105</v>
@@ -37089,7 +37089,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q32" t="n">
-        <v>247.6524856312129</v>
+        <v>80.72213165382523</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K35" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L35" t="n">
-        <v>140.7360160012659</v>
+        <v>531.9621452441386</v>
       </c>
       <c r="M35" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N35" t="n">
-        <v>447.0280453124392</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O35" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P35" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q35" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L36" t="n">
-        <v>417.9263568490113</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M36" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N36" t="n">
-        <v>658.7614942451607</v>
+        <v>377.4642727362761</v>
       </c>
       <c r="O36" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P36" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q36" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K38" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L38" t="n">
-        <v>322.7535243442418</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M38" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N38" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O38" t="n">
-        <v>171.8879043605652</v>
+        <v>526.2530003157326</v>
       </c>
       <c r="P38" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q38" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37630,13 +37630,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M39" t="n">
-        <v>181.3104407622271</v>
+        <v>285.038077531644</v>
       </c>
       <c r="N39" t="n">
-        <v>368.626811737848</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O39" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P39" t="n">
         <v>428.2502711927643</v>
@@ -37788,10 +37788,10 @@
         <v>558.3972305517163</v>
       </c>
       <c r="M41" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N41" t="n">
-        <v>522.6088585052271</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O41" t="n">
         <v>552.6880856233105</v>
@@ -37800,7 +37800,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q41" t="n">
-        <v>247.6524856312129</v>
+        <v>124.4506259042314</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M42" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N42" t="n">
-        <v>200.663375406732</v>
+        <v>658.7614942451607</v>
       </c>
       <c r="O42" t="n">
-        <v>257.244240008109</v>
+        <v>264.8511849196801</v>
       </c>
       <c r="P42" t="n">
         <v>428.2502711927643</v>
@@ -38019,25 +38019,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K44" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L44" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M44" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N44" t="n">
-        <v>563.4805295933761</v>
+        <v>284.7988911030664</v>
       </c>
       <c r="O44" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P44" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q44" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N45" t="n">
-        <v>248.7689815793672</v>
+        <v>642.6313008560969</v>
       </c>
       <c r="O45" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P45" t="n">
         <v>428.2502711927643</v>
